--- a/data/hotels_by_city/Denver/Denver_shard_40.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_40.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="715">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33514-d119996-Reviews-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
   </si>
   <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Courtyard-By-Marriott-Denver-Southwest-Lakewood.h163662.Hotel-Information?chkin=4%2F16%2F2018&amp;chkout=4%2F17%2F2018&amp;rm1=a2&amp;regionId=178254&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1522966723087&amp;vip=false&amp;c=90268917-4686-4619-a77e-cfc92aebe088&amp;mctc=9&amp;exp_dp=98.42&amp;exp_ts=1522966729005&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,2071 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r587486381-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>33514</t>
+  </si>
+  <si>
+    <t>119996</t>
+  </si>
+  <si>
+    <t>587486381</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t>MOTEL 6 TURNED MARRIOTT</t>
+  </si>
+  <si>
+    <t>Fully renovated lobby and that’s it you mean? 
+If you’ve ever stayed in a true Marriott hotel, it is blatantly obvious that this is an old facility stamped with the name. THIS IS NOT A QUALITY MARRIOTT.  
+We are platinum elite members of the hotel chain and have stayed in rooms all across the map. We stayed for a couple nights on business and travel. 
+Our stay here started with walking into a room with stains all over the carpet, scratched up furniture, possible fresh blood on the carpet, white stains on the chairs, yellow stained ceilings, a microwave from the 60s and a mini fridge too small to hold 2 boxes of leftovers. 
+Easy to say, we requested a new room. 
+Both rooms smelled like old feet. Two squeaky spring beds. One tiny sink area unattached to a poorly lit showering/ toilet room. No microwave at all in the room this time. 
+A gorilla and a rhino must’ve been wrestling upstairs. Combined with the upstairs noise and loud highway RIGHT NEXT TO US, it was hard to have enjoyable down time during the day. We left for day time activities promptly. 
+If you’re a person that feeds on energy and has anxiety, this is NOT the place for you. The crazy red, gold, and blue prints and patterns will make you feel wildly uncomfortable. 
+Don’t be fooled by the recently modernized lobby. It is quite possible it’s the nicest...Fully renovated lobby and that’s it you mean? If you’ve ever stayed in a true Marriott hotel, it is blatantly obvious that this is an old facility stamped with the name. THIS IS NOT A QUALITY MARRIOTT.  We are platinum elite members of the hotel chain and have stayed in rooms all across the map. We stayed for a couple nights on business and travel. Our stay here started with walking into a room with stains all over the carpet, scratched up furniture, possible fresh blood on the carpet, white stains on the chairs, yellow stained ceilings, a microwave from the 60s and a mini fridge too small to hold 2 boxes of leftovers. Easy to say, we requested a new room. Both rooms smelled like old feet. Two squeaky spring beds. One tiny sink area unattached to a poorly lit showering/ toilet room. No microwave at all in the room this time. A gorilla and a rhino must’ve been wrestling upstairs. Combined with the upstairs noise and loud highway RIGHT NEXT TO US, it was hard to have enjoyable down time during the day. We left for day time activities promptly. If you’re a person that feeds on energy and has anxiety, this is NOT the place for you. The crazy red, gold, and blue prints and patterns will make you feel wildly uncomfortable. Don’t be fooled by the recently modernized lobby. It is quite possible it’s the nicest part of the whole place. Gym is tiny and usually busy. Pool is okay. Was too cautious to actually use it by the grimy condition of most everything else. Now the STAFF was very friendly. To accommodate the first room failure, they have us coupons to the bistro. It’s over priced and there’s no complimentary breakfast. But it still seems like they’re understaffed. We strolled in at 12:30am one night with ease, no one at the front desk. Everything was eerily quiet. Anyone could’ve come in... We enjoyed their friendliness in passing, but spending actual time in our room or in this hotel was out of the question. I would NOT recommend this hotel to people staying longer than a night. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 15, 2018</t>
+  </si>
+  <si>
+    <t>Fully renovated lobby and that’s it you mean? 
+If you’ve ever stayed in a true Marriott hotel, it is blatantly obvious that this is an old facility stamped with the name. THIS IS NOT A QUALITY MARRIOTT.  
+We are platinum elite members of the hotel chain and have stayed in rooms all across the map. We stayed for a couple nights on business and travel. 
+Our stay here started with walking into a room with stains all over the carpet, scratched up furniture, possible fresh blood on the carpet, white stains on the chairs, yellow stained ceilings, a microwave from the 60s and a mini fridge too small to hold 2 boxes of leftovers. 
+Easy to say, we requested a new room. 
+Both rooms smelled like old feet. Two squeaky spring beds. One tiny sink area unattached to a poorly lit showering/ toilet room. No microwave at all in the room this time. 
+A gorilla and a rhino must’ve been wrestling upstairs. Combined with the upstairs noise and loud highway RIGHT NEXT TO US, it was hard to have enjoyable down time during the day. We left for day time activities promptly. 
+If you’re a person that feeds on energy and has anxiety, this is NOT the place for you. The crazy red, gold, and blue prints and patterns will make you feel wildly uncomfortable. 
+Don’t be fooled by the recently modernized lobby. It is quite possible it’s the nicest...Fully renovated lobby and that’s it you mean? If you’ve ever stayed in a true Marriott hotel, it is blatantly obvious that this is an old facility stamped with the name. THIS IS NOT A QUALITY MARRIOTT.  We are platinum elite members of the hotel chain and have stayed in rooms all across the map. We stayed for a couple nights on business and travel. Our stay here started with walking into a room with stains all over the carpet, scratched up furniture, possible fresh blood on the carpet, white stains on the chairs, yellow stained ceilings, a microwave from the 60s and a mini fridge too small to hold 2 boxes of leftovers. Easy to say, we requested a new room. Both rooms smelled like old feet. Two squeaky spring beds. One tiny sink area unattached to a poorly lit showering/ toilet room. No microwave at all in the room this time. A gorilla and a rhino must’ve been wrestling upstairs. Combined with the upstairs noise and loud highway RIGHT NEXT TO US, it was hard to have enjoyable down time during the day. We left for day time activities promptly. If you’re a person that feeds on energy and has anxiety, this is NOT the place for you. The crazy red, gold, and blue prints and patterns will make you feel wildly uncomfortable. Don’t be fooled by the recently modernized lobby. It is quite possible it’s the nicest part of the whole place. Gym is tiny and usually busy. Pool is okay. Was too cautious to actually use it by the grimy condition of most everything else. Now the STAFF was very friendly. To accommodate the first room failure, they have us coupons to the bistro. It’s over priced and there’s no complimentary breakfast. But it still seems like they’re understaffed. We strolled in at 12:30am one night with ease, no one at the front desk. Everything was eerily quiet. Anyone could’ve come in... We enjoyed their friendliness in passing, but spending actual time in our room or in this hotel was out of the question. I would NOT recommend this hotel to people staying longer than a night. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r579931567-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>579931567</t>
+  </si>
+  <si>
+    <t>05/13/2018</t>
+  </si>
+  <si>
+    <t>Perfect location betweeen Denver and Red Rocks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy and quick check in, friendly staff.   We liked that the location was only 20 minutes to Red Rocks Amphitheater and 20 minutes to downtown Denver.  The room was a bit dated, but clean, nice size and had a balcony.  Staying in the suburb of Lakewood there are retaurants, any store needed and is very convenient. We would definitely stay here again when travelling to Denver. </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r577773560-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>577773560</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Excellent for the price</t>
+  </si>
+  <si>
+    <t>Loved the Bistro where we had a nice meal, they even offer alcohol and Starbucks too. The bed was comfy and enjoyed the balcony room and they also honor a Veteran discount. The water in the shower is very hot and the hotel was clean. Staff was very kind and accommodating. Would stay again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r560253577-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>560253577</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>great service but poor facilities</t>
+  </si>
+  <si>
+    <t>The service in this place is exceptional, from the whole team at reception to the bar staff to the cleaning team (who do a great job in bedrooms and public areas). What lets it down is the facilities - a gym without an exercise bike, a bar area without any real atmosphere so you have to go out to get food in a place with a decent vibe. A little investment would really help, because the staff are all very very good.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded February 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2018</t>
+  </si>
+  <si>
+    <t>The service in this place is exceptional, from the whole team at reception to the bar staff to the cleaning team (who do a great job in bedrooms and public areas). What lets it down is the facilities - a gym without an exercise bike, a bar area without any real atmosphere so you have to go out to get food in a place with a decent vibe. A little investment would really help, because the staff are all very very good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r543479113-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>543479113</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>Clean and updated hotel in the South Denver area.</t>
+  </si>
+  <si>
+    <t>Hotel was clean and staff were friendly. The rate I reserved at this Courtyard included breakfast which I find to be a better option compared to the free breakfast buffets offered by other hotels that cater to business travelers. Breakfast included at a Courtyard means breakfast made to order, so you can sit and relax (or hit the road), rather than sift through an often limited buffet. Front desk staff were friendly, acknowledged my status at check-in, and even let me spin a wheel where I won an additional 2500 Marriott points (thank you!). The room was clean and comfortable for a one night stay, and there was room to spread out had I been staying longer. For easy access to Denver, this hotel was conveniently located near the highway with plenty of parking and restaurants shops within easy walking distance. My only issue was that breakfast was accidentally billed to my account, but a quick and friendly phone call resolved the issue on the spot.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Hotel was clean and staff were friendly. The rate I reserved at this Courtyard included breakfast which I find to be a better option compared to the free breakfast buffets offered by other hotels that cater to business travelers. Breakfast included at a Courtyard means breakfast made to order, so you can sit and relax (or hit the road), rather than sift through an often limited buffet. Front desk staff were friendly, acknowledged my status at check-in, and even let me spin a wheel where I won an additional 2500 Marriott points (thank you!). The room was clean and comfortable for a one night stay, and there was room to spread out had I been staying longer. For easy access to Denver, this hotel was conveniently located near the highway with plenty of parking and restaurants shops within easy walking distance. My only issue was that breakfast was accidentally billed to my account, but a quick and friendly phone call resolved the issue on the spot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r532172354-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>532172354</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Family Wedding in Colorado</t>
+  </si>
+  <si>
+    <t>When we arrived there were no luggage carts in the lobby and I was told there should be one next to the elevator. There were none. The maintenance worker (Chris) offered to help me carry our bags up to our room since my husband recently had knee replacements. There was only one elevator. Our room needed updating and there was an obvious smell every time we entered. The carpet was old and heavily stained, the A/C unit rattled and kept us awake and didn't cool the room very well. The bed was to our liking and the bathroom was clean.We took a short walk in the morning around the complex. Tree lined with sidewalks. Highway nearby is noisy. The pool was ice cold and when we talked to the front desk they said the heating unit was broken. We were allowed to go across the street to the Residence Inn to use their pool. The parking lot was being repaved/repainted and there were only about 10 spots open on our side of building. When we returned later that evening we had to park across the street in a church parking lot. (Thank God for them!) All of our family members were on another floor. We booked early and although we got a special "rate" it still seemed overpriced. Won't be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2017</t>
+  </si>
+  <si>
+    <t>When we arrived there were no luggage carts in the lobby and I was told there should be one next to the elevator. There were none. The maintenance worker (Chris) offered to help me carry our bags up to our room since my husband recently had knee replacements. There was only one elevator. Our room needed updating and there was an obvious smell every time we entered. The carpet was old and heavily stained, the A/C unit rattled and kept us awake and didn't cool the room very well. The bed was to our liking and the bathroom was clean.We took a short walk in the morning around the complex. Tree lined with sidewalks. Highway nearby is noisy. The pool was ice cold and when we talked to the front desk they said the heating unit was broken. We were allowed to go across the street to the Residence Inn to use their pool. The parking lot was being repaved/repainted and there were only about 10 spots open on our side of building. When we returned later that evening we had to park across the street in a church parking lot. (Thank God for them!) All of our family members were on another floor. We booked early and although we got a special "rate" it still seemed overpriced. Won't be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r527950690-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>527950690</t>
+  </si>
+  <si>
+    <t>09/27/2017</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>When I arrived on Aug.10th I was first given a room that was partially cleaned. There was old food and melting ice cream in the refrigerator. I was given another room that was a lil smelly but we stayed because we were tired from traveling from South Florida all day. When I received my AMEX bill I was charged $250 for smoking in the room when I never smoked in the room. This hotel is dirty and a rip off. With a liar for a manager. I go to Denver a couple times a year and will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded September 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 30, 2017</t>
+  </si>
+  <si>
+    <t>When I arrived on Aug.10th I was first given a room that was partially cleaned. There was old food and melting ice cream in the refrigerator. I was given another room that was a lil smelly but we stayed because we were tired from traveling from South Florida all day. When I received my AMEX bill I was charged $250 for smoking in the room when I never smoked in the room. This hotel is dirty and a rip off. With a liar for a manager. I go to Denver a couple times a year and will never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r509180850-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>509180850</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Noisy fan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We arrived to the hotel very late, and so put up with the noisy fan in our room, even though the AC was turned off.  Aside from that and no newspapers in the lobby, everything else was satisfactory.  I stay at Marriott Properties often and expect certain things.....I like the quality of the brand.....so excuse the pickiness.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r508383563-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>508383563</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Poorly Operated Courtyard</t>
+  </si>
+  <si>
+    <t>Staff was friendly--and really needed to be to make up for the mistakes.  When we checked-in, the front desk gave us keys to a room that already had guests in it.  What an embarrassment.  Next, they gave us a room where the side of the bed was against the wall so no room to get out of bed.  Third, they gave us a room that finally made sense.  All this took an hour and a half while we were on a deadline for a dinner appointment.During our stay, housekeeping did not service our room even though we made sure the front desk knew about it.The front desk knew our disappointment, yet no offer of an amenity or even price reduction. We're not gripers.  I've stayed in hundreds of Courtyards.  Generally, they are outstanding. But this Courtyard is by far the most poorly operated hotel I've experienced.  The staff was friendly, but had no sense of hospitality... and no sense of operational discipline...and it makes no sense to stay at this Courtyard.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Staff was friendly--and really needed to be to make up for the mistakes.  When we checked-in, the front desk gave us keys to a room that already had guests in it.  What an embarrassment.  Next, they gave us a room where the side of the bed was against the wall so no room to get out of bed.  Third, they gave us a room that finally made sense.  All this took an hour and a half while we were on a deadline for a dinner appointment.During our stay, housekeeping did not service our room even though we made sure the front desk knew about it.The front desk knew our disappointment, yet no offer of an amenity or even price reduction. We're not gripers.  I've stayed in hundreds of Courtyards.  Generally, they are outstanding. But this Courtyard is by far the most poorly operated hotel I've experienced.  The staff was friendly, but had no sense of hospitality... and no sense of operational discipline...and it makes no sense to stay at this Courtyard.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r488798241-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>488798241</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Meh....</t>
+  </si>
+  <si>
+    <t>These folks charge a lot and do have a little restaurant with a token Starbucks but no complimentary breakfast?  We travel to Denver often and just can't seem to find a good value hotel here. Yes it has decent space/fridge/workout area. It's dated and pretty much very very meh. They got our reservation length wrong even though I made it through Marriott.com. Wow. Just keep trying. We'll keep trying. Let me know if you find some value. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Jenny H, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>These folks charge a lot and do have a little restaurant with a token Starbucks but no complimentary breakfast?  We travel to Denver often and just can't seem to find a good value hotel here. Yes it has decent space/fridge/workout area. It's dated and pretty much very very meh. They got our reservation length wrong even though I made it through Marriott.com. Wow. Just keep trying. We'll keep trying. Let me know if you find some value. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r484775533-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>484775533</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Great new hotel</t>
+  </si>
+  <si>
+    <t>This hotel is either new or recently updated. It is right off the highway and a quick ride to shops, restaurants, and Breckenridge Brewery at the Farm House. There is a restaurant/bar in the hotel lobby as well. The staff was very friendly and the bed was super comfy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r484225592-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>484225592</t>
+  </si>
+  <si>
+    <t>05/14/2017</t>
+  </si>
+  <si>
+    <t>No Air Conditioning! stay away! They dont care,</t>
+  </si>
+  <si>
+    <t>Ok, I dont do reviews, but I want consumers to know about this place. We checked in and found the room was next to the express way and with a sliding glass door with worn seals it sounded like we were on the express way and we had no ac on the first hot weekend of May. So we changed rooms away from the express way the next day to find the ac did not work in that room either. We had maintenance fix the ac to have it working  for a few hours then we departed to our event. When we returned the ac was not working, we called the front desk and reported the ac not working we got..."maintenance will not be back till 7am and we are booked" I was hot! In more ways than one! So check your reservation if your anywhere near the express way move, the noise is defining. Plus you wont have the ac to drown the noise. We stayed 3 days giving them opportunity to make it rignt, to no eval they dont care if they have your money. And thats all I have to say about that.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jenny H, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Ok, I dont do reviews, but I want consumers to know about this place. We checked in and found the room was next to the express way and with a sliding glass door with worn seals it sounded like we were on the express way and we had no ac on the first hot weekend of May. So we changed rooms away from the express way the next day to find the ac did not work in that room either. We had maintenance fix the ac to have it working  for a few hours then we departed to our event. When we returned the ac was not working, we called the front desk and reported the ac not working we got..."maintenance will not be back till 7am and we are booked" I was hot! In more ways than one! So check your reservation if your anywhere near the express way move, the noise is defining. Plus you wont have the ac to drown the noise. We stayed 3 days giving them opportunity to make it rignt, to no eval they dont care if they have your money. And thats all I have to say about that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r453380519-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>453380519</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>First Time at a Courtyard</t>
+  </si>
+  <si>
+    <t>This is the first time I have stayed at a Courtyard in a while, usually I stay at Marriott or JW. I was impressed. The room was comfortable, the bed was great, and the Bistro was a pleasant surprise. The food was better than expected, and the wine selection was much better than expected.I would definitely stay at another courtyard.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r452821406-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>452821406</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>ALways stay at Courtyards for Business</t>
+  </si>
+  <si>
+    <t>Courtyards have repeatedly proven to me to be a perfect place for short business trips.  This one was no different.  Bed are incredibly comfortable.  Rooms are well sized.  Always enjoy the Bistro/Lounge's at these places.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r451660967-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>451660967</t>
+  </si>
+  <si>
+    <t>01/13/2017</t>
+  </si>
+  <si>
+    <t>Good hotel with nice prices</t>
+  </si>
+  <si>
+    <t>Nice and small hotel, not crowded, rooms are nice and clean. Staff is always willing to help you. Restaurant with good food but it should extend the menu (there is just a hand full of meals to choose).MoreShow less</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded January 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2017</t>
+  </si>
+  <si>
+    <t>Nice and small hotel, not crowded, rooms are nice and clean. Staff is always willing to help you. Restaurant with good food but it should extend the menu (there is just a hand full of meals to choose).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r417941329-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>417941329</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>I was so impressed!</t>
+  </si>
+  <si>
+    <t>If you look at my other reviews, I don't hold back if something isn't right. But at this hotel, they got it ALL right!!! Great service, great room, great experience from entry to exit. The front desk staff makes you feel so good about checking in! (lol). They are forever concerned about your happiness as you come near the lobby, so attentive, so willing to make everything perfect for you. The room was really impressive, large, with a balcony and the sounds were muffled because of the way the bed is situated. Boy is that a relief after being in all kinds of hotels with noise, loud neighbors, fights in the hallway. Not here, this was a class act. Kudos to Marriott, now I will definitely put courtyards at the top of my list.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded September 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2016</t>
+  </si>
+  <si>
+    <t>If you look at my other reviews, I don't hold back if something isn't right. But at this hotel, they got it ALL right!!! Great service, great room, great experience from entry to exit. The front desk staff makes you feel so good about checking in! (lol). They are forever concerned about your happiness as you come near the lobby, so attentive, so willing to make everything perfect for you. The room was really impressive, large, with a balcony and the sounds were muffled because of the way the bed is situated. Boy is that a relief after being in all kinds of hotels with noise, loud neighbors, fights in the hallway. Not here, this was a class act. Kudos to Marriott, now I will definitely put courtyards at the top of my list.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r415070138-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>415070138</t>
+  </si>
+  <si>
+    <t>09/05/2016</t>
+  </si>
+  <si>
+    <t>Unresponsive staff</t>
+  </si>
+  <si>
+    <t>Upon arrival, the bar/food/lobby area was appealing and spotless. This is obviously a newer hotel. There is also a selection of snack and drink items that can be charged to the room - a welcome improvement over the standard vending setup. Unfortunately, this was the best part of my stay. Walking down the corridor to my room, I was suddenly overcome with a very strong odor of marijuana. It was clearly coming from a room two doors before mine. The smoke had made it into my room and irritated my throat and eyes. Now I understand that management cannot prevent this from happening. The question is; what action will they take to rectify the problem? Note that this is a non-smoking hotel. Well, the answer is: nothing. When I went to the desk, the night clerk said "it happens"(???) and said I should tell the manager the next morning (really???), which I did. The managers response was a now familiar "it happens". Frustrated, we checked out  and spent the next two nights at a nearby Hampton Inn.I don't expect perfect behavior from other guests, but I do have an expectation that hotel staff will take action when there is a problem. They should have AT LEAST offered me another room in a different part of the property and immediately spoke with the party-going occupants. What do YOU think?MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Jennifer C, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2016</t>
+  </si>
+  <si>
+    <t>Upon arrival, the bar/food/lobby area was appealing and spotless. This is obviously a newer hotel. There is also a selection of snack and drink items that can be charged to the room - a welcome improvement over the standard vending setup. Unfortunately, this was the best part of my stay. Walking down the corridor to my room, I was suddenly overcome with a very strong odor of marijuana. It was clearly coming from a room two doors before mine. The smoke had made it into my room and irritated my throat and eyes. Now I understand that management cannot prevent this from happening. The question is; what action will they take to rectify the problem? Note that this is a non-smoking hotel. Well, the answer is: nothing. When I went to the desk, the night clerk said "it happens"(???) and said I should tell the manager the next morning (really???), which I did. The managers response was a now familiar "it happens". Frustrated, we checked out  and spent the next two nights at a nearby Hampton Inn.I don't expect perfect behavior from other guests, but I do have an expectation that hotel staff will take action when there is a problem. They should have AT LEAST offered me another room in a different part of the property and immediately spoke with the party-going occupants. What do YOU think?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r412379520-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>412379520</t>
+  </si>
+  <si>
+    <t>08/29/2016</t>
+  </si>
+  <si>
+    <t>Better than most</t>
+  </si>
+  <si>
+    <t>I stayed recently for one night on a business trip. I liked the lounge, which was better than most. It included a bar. They had local craft beers, which you drink in the lounge or take to your room. For breakfast, the lounge served a small menu of fresh cooked dishes which were better than the free breakfasts usually offered. It was worth the few extra dollars.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded September 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2016</t>
+  </si>
+  <si>
+    <t>I stayed recently for one night on a business trip. I liked the lounge, which was better than most. It included a bar. They had local craft beers, which you drink in the lounge or take to your room. For breakfast, the lounge served a small menu of fresh cooked dishes which were better than the free breakfasts usually offered. It was worth the few extra dollars.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r394109408-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>394109408</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Fine Stay</t>
+  </si>
+  <si>
+    <t>Stayed in June for a road trip passing through the area.  Slept well, the hotel and room were nicely decorated but the layout of the bathroom was a little awkward, I had to squeeze around the door to get to the shower, and the ceiling was noticeably lower than the room. We did not take advantage of many of the amenities offered here as we arrived late and left early, but everything was satisfactory.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Jennifer C, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded July 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2016</t>
+  </si>
+  <si>
+    <t>Stayed in June for a road trip passing through the area.  Slept well, the hotel and room were nicely decorated but the layout of the bathroom was a little awkward, I had to squeeze around the door to get to the shower, and the ceiling was noticeably lower than the room. We did not take advantage of many of the amenities offered here as we arrived late and left early, but everything was satisfactory.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r391707706-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>391707706</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very disappointed. </t>
+  </si>
+  <si>
+    <t>Well below expectations. Was advertised as 'free breakfast' at booking...not true upon arrival. Complimentary coffee first few mornings...that went away 4th morning/last day of stay (only a 'promotion' I was told). $175/night and no coffee?Really???  Phones did not work entire stay. Impossible to contact front desk unless walking there.  Never again...MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2016</t>
+  </si>
+  <si>
+    <t>Well below expectations. Was advertised as 'free breakfast' at booking...not true upon arrival. Complimentary coffee first few mornings...that went away 4th morning/last day of stay (only a 'promotion' I was told). $175/night and no coffee?Really???  Phones did not work entire stay. Impossible to contact front desk unless walking there.  Never again...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r385955621-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>385955621</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff not super helpful </t>
+  </si>
+  <si>
+    <t>Disappointed. This was a business stay, yet they charged my personal credit card. I was charged on Sunday and it took until Thursday to get the charges off my card! The room was ok, but nothing special. There's no continental breakfast. In my opinion, it seemed over priced for just a place to sleep. MoreShow less</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded June 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2016</t>
+  </si>
+  <si>
+    <t>Disappointed. This was a business stay, yet they charged my personal credit card. I was charged on Sunday and it took until Thursday to get the charges off my card! The room was ok, but nothing special. There's no continental breakfast. In my opinion, it seemed over priced for just a place to sleep. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r378297104-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>378297104</t>
+  </si>
+  <si>
+    <t>05/31/2016</t>
+  </si>
+  <si>
+    <t>Expected more than was delivered, very disappointed</t>
+  </si>
+  <si>
+    <t>We booked this hotel 4 months in advance with great expectations. Previous stays at other Courtyards were excellent! This one was not. The room was very small (about 60 square feet smaller) due to space taken by elevator shaft. Could not be moved to another room - all rooms booked. Surprisingly, we didn't hear the elevator at all but noise from adjacent rooms was a distraction, especially from above. Bed and pillows were very comfortable and bathroom and vanity areas were very good. Instant hot water was a plus. Morning breakfast at The Bistro was disappointing - most food items were cold when served. The price was reasonable. Hotel location provided easy access to major roads - also a plus. After reading our hand-written review left at the front desk as we left, the management has already reached out to discuss our issues. I will update this review, if necessary, with results.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We booked this hotel 4 months in advance with great expectations. Previous stays at other Courtyards were excellent! This one was not. The room was very small (about 60 square feet smaller) due to space taken by elevator shaft. Could not be moved to another room - all rooms booked. Surprisingly, we didn't hear the elevator at all but noise from adjacent rooms was a distraction, especially from above. Bed and pillows were very comfortable and bathroom and vanity areas were very good. Instant hot water was a plus. Morning breakfast at The Bistro was disappointing - most food items were cold when served. The price was reasonable. Hotel location provided easy access to major roads - also a plus. After reading our hand-written review left at the front desk as we left, the management has already reached out to discuss our issues. I will update this review, if necessary, with results.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r377209061-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>377209061</t>
+  </si>
+  <si>
+    <t>05/27/2016</t>
+  </si>
+  <si>
+    <t>Nice Stay, nice place, quiet and comfortable.</t>
+  </si>
+  <si>
+    <t>The staff is nice and the location was good if you do not want to stay or pay for the Downtown Denver prices.  Most of our activity was not in Denver so this worked out well.  Easy enough to get to and from, right of 285 and Hampden Ave.  Was upgraded which was nice, but the 1st room had an odor issue, so we were moved to another room that was much better. No idea what the odor was, but they promptly moved us without hassle.  Room 2 was clean, quiet, and comfortable. This was the second time I stayed here.  We did not venture in on any of the food from the Bistro.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded June 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 3, 2016</t>
+  </si>
+  <si>
+    <t>The staff is nice and the location was good if you do not want to stay or pay for the Downtown Denver prices.  Most of our activity was not in Denver so this worked out well.  Easy enough to get to and from, right of 285 and Hampden Ave.  Was upgraded which was nice, but the 1st room had an odor issue, so we were moved to another room that was much better. No idea what the odor was, but they promptly moved us without hassle.  Room 2 was clean, quiet, and comfortable. This was the second time I stayed here.  We did not venture in on any of the food from the Bistro.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r374373873-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>374373873</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hotel nice, breakfast left much to be desired </t>
+  </si>
+  <si>
+    <t>hotel was nice. I had to go back 3 times to check in band the lady at the desk felt bad so she upgraded my room. breakfast was expensive...and very...very...slow. I had to wait 10 min for oatmeal. and they told me I could only order 1 of 3 choices rather than the full menu. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>hotel was nice. I had to go back 3 times to check in band the lady at the desk felt bad so she upgraded my room. breakfast was expensive...and very...very...slow. I had to wait 10 min for oatmeal. and they told me I could only order 1 of 3 choices rather than the full menu. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r366039929-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>366039929</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Comfortable and Uncomplicated</t>
+  </si>
+  <si>
+    <t>Overall this hotel is comfortable and simple.  The rooms are average but I mostly enjoyed the reception and restaurant area.  Not complicated, and pleasant to work in over breakfast or in the evening.  My one issue was on the morning of departure I had no hot water and hence no shower. While I found the staff friendly and helpful over my stay, I wasn't offered anything more than an apology for what I considered a significant issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beth M, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded April 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 23, 2016</t>
+  </si>
+  <si>
+    <t>Overall this hotel is comfortable and simple.  The rooms are average but I mostly enjoyed the reception and restaurant area.  Not complicated, and pleasant to work in over breakfast or in the evening.  My one issue was on the morning of departure I had no hot water and hence no shower. While I found the staff friendly and helpful over my stay, I wasn't offered anything more than an apology for what I considered a significant issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r364998518-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>364998518</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>They have everything you need in a clean comfortable hotel. People who work there are very nice. Close to everything that I needed and to restaurants and shopping. The freeway which has access to downtown Denver is also right there.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Beth M, Operations Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded April 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2016</t>
+  </si>
+  <si>
+    <t>They have everything you need in a clean comfortable hotel. People who work there are very nice. Close to everything that I needed and to restaurants and shopping. The freeway which has access to downtown Denver is also right there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r363181580-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>363181580</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>I stayed for 4 nights at this hotel.  It was modern, clean and quiet.  Overall, I enjoyed my stay and found the hotel convenient to where I had business.  I stayed on the second floor and the room had a small balcony which was a plus.  The curtain/blinds were opaque enough that all outside light could be blocked if desired.Breakfast was not provided but available at the hotel restaurant.  It was a bit expensive but good.  As an alternative, there are various restaurants within a short driving distance.The only thing I believe could have been better was guest information.  I didn't find any booklet or card in the room that contained information about the hotel amenities or local establishments.  I had to go to the front desk for a TV channel guide.  When I asked about a list of local restaurants I was told they didn't have lists in the rooms because they were revising the list but could verbally recommend some.MoreShow less</t>
+  </si>
+  <si>
+    <t>Brittany C, Front Desk Supervisor at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>I stayed for 4 nights at this hotel.  It was modern, clean and quiet.  Overall, I enjoyed my stay and found the hotel convenient to where I had business.  I stayed on the second floor and the room had a small balcony which was a plus.  The curtain/blinds were opaque enough that all outside light could be blocked if desired.Breakfast was not provided but available at the hotel restaurant.  It was a bit expensive but good.  As an alternative, there are various restaurants within a short driving distance.The only thing I believe could have been better was guest information.  I didn't find any booklet or card in the room that contained information about the hotel amenities or local establishments.  I had to go to the front desk for a TV channel guide.  When I asked about a list of local restaurants I was told they didn't have lists in the rooms because they were revising the list but could verbally recommend some.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r357268624-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>357268624</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>I was in Denver on a business trip.. My room was ready upon an early arrival.. Staff was very courteous and helpful. My room was extremely clean.  I would recommend this hotel to family and friends visiting the Lakewood area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kelly B, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded March 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2016</t>
+  </si>
+  <si>
+    <t>I was in Denver on a business trip.. My room was ready upon an early arrival.. Staff was very courteous and helpful. My room was extremely clean.  I would recommend this hotel to family and friends visiting the Lakewood area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r354420237-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>354420237</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>Average Business Hotel</t>
+  </si>
+  <si>
+    <t>There is not much to say about this hotel. Nothing bad – nothing really outstanding.Beds and beddings are very comfortable and the room size is pretty big. The sink / mirror area on the other hand is very small – OK for me, but it wouldn’t work for my wife or if you come with a family.Breakfast is not included, but there is a small Bistro that service Starbucks coffee drinks and other items to order. That’s OK if you are not a rush in the morning – it took around 7-10 minutes just to get a Cappuccino.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Kelly B, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2016</t>
+  </si>
+  <si>
+    <t>There is not much to say about this hotel. Nothing bad – nothing really outstanding.Beds and beddings are very comfortable and the room size is pretty big. The sink / mirror area on the other hand is very small – OK for me, but it wouldn’t work for my wife or if you come with a family.Breakfast is not included, but there is a small Bistro that service Starbucks coffee drinks and other items to order. That’s OK if you are not a rush in the morning – it took around 7-10 minutes just to get a Cappuccino.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r349963908-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>349963908</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Older Hotel</t>
+  </si>
+  <si>
+    <t>This is an ok motel but it is older and not exactly what I expected.  For instance, noise from the outside and the hallway - the walls aren't insulated and noise deadened like most newly built hotels.  The front desk staff was courteous but lacked clear communication on room types and layout.  Stayed one night and then moved to the Marriott in Golden.  Much better experience there.  It was what you expect from a Marriott.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Kelly B, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2016</t>
+  </si>
+  <si>
+    <t>This is an ok motel but it is older and not exactly what I expected.  For instance, noise from the outside and the hallway - the walls aren't insulated and noise deadened like most newly built hotels.  The front desk staff was courteous but lacked clear communication on room types and layout.  Stayed one night and then moved to the Marriott in Golden.  Much better experience there.  It was what you expect from a Marriott.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r333385412-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>333385412</t>
+  </si>
+  <si>
+    <t>12/16/2015</t>
+  </si>
+  <si>
+    <t>Excellent place to stay the night</t>
+  </si>
+  <si>
+    <t>Our family rented 4 rooms for a night in Denver as we do every holiday season. Would you believe this was the ONLY hotel to offer the legendary $52.80 per night price during the holidays sale? Normally we stay downtown, however this year we stayed at this fine establishment. Upon arrival the evening clerk was more than inviting and nice. They even had fresh baked chocolate chip cookies! The hotel interior and exterior were very clean. The rooms were decorated nicely and the beds were extra comfortable. We didn't get to use the pool, however upon feeling the warm temperature of the water I think it would have been a nice dip. There was fresh brewed Starbucks Coffee for free for guests in the lobby. Overall we had a wonderful experience and will most likely be back should we be in the Lakewood area again. One complaint though...unlike the wonderful gentleman the evening before, the two young clerks in the morning were more worried about chatting and laughing among themselves at the front desk then keep the coffee station stocked and clean. I had the take the creamer bottle to be refilled at the bistro myself. There was trash on the floor in front of the table, under the table, all over the table and the trashcan was overflowing. Other than that small issue, this hotel was lovely and highly recommended. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Kelly B, Assistant General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2015</t>
+  </si>
+  <si>
+    <t>Our family rented 4 rooms for a night in Denver as we do every holiday season. Would you believe this was the ONLY hotel to offer the legendary $52.80 per night price during the holidays sale? Normally we stay downtown, however this year we stayed at this fine establishment. Upon arrival the evening clerk was more than inviting and nice. They even had fresh baked chocolate chip cookies! The hotel interior and exterior were very clean. The rooms were decorated nicely and the beds were extra comfortable. We didn't get to use the pool, however upon feeling the warm temperature of the water I think it would have been a nice dip. There was fresh brewed Starbucks Coffee for free for guests in the lobby. Overall we had a wonderful experience and will most likely be back should we be in the Lakewood area again. One complaint though...unlike the wonderful gentleman the evening before, the two young clerks in the morning were more worried about chatting and laughing among themselves at the front desk then keep the coffee station stocked and clean. I had the take the creamer bottle to be refilled at the bistro myself. There was trash on the floor in front of the table, under the table, all over the table and the trashcan was overflowing. Other than that small issue, this hotel was lovely and highly recommended. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r331603231-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>331603231</t>
+  </si>
+  <si>
+    <t>12/09/2015</t>
+  </si>
+  <si>
+    <t>Pleasant, comfortable and friendly</t>
+  </si>
+  <si>
+    <t>This hotel is your typical suburban hotel-- functional, comfortable, clean. The best thing is that the staff--all of them-- go out of their way to smile and say hello. Not in an intrusive way, just a genuinely friendly way. They make you feel like they really appreciate your business.MoreShow less</t>
+  </si>
+  <si>
+    <t>Kelly B, Assistant General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded December 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is your typical suburban hotel-- functional, comfortable, clean. The best thing is that the staff--all of them-- go out of their way to smile and say hello. Not in an intrusive way, just a genuinely friendly way. They make you feel like they really appreciate your business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r330194305-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>330194305</t>
+  </si>
+  <si>
+    <t>12/01/2015</t>
+  </si>
+  <si>
+    <t>Thanksgiving getaway!</t>
+  </si>
+  <si>
+    <t>What can I say, we wanted an escape this Thanksgiving. My daughter wanted to swim and I wanted to go somewhere I could relax and hide! I work retail,  and have lost my Mom and Grandmother, so I  am not a huge fan of the holidays. I try to make them fun for my daughter, but we try to go the nontraditional route sometimes.
+The Tuesday night before, I could only find a few hotels online that met my criteria and price range. I chose Marriott because at all the times we've stayed at one, it never seems to disappoint.  
+We didn't arrive until almost 1AM on Wednesday/Thursday, but had the best service ever when we checked in! I wish I had remembered this gentleman's name so he could receive the proper recognition! First, he went over all the usual items and then asked if I had any questions. I was really exhausted after working, and making the drive, so it took me a few minutes to gather my thoughts. Then I remembered, do they offer free breakfast? He told me it wasn't free, but he'd go ahead and comp our breakfasts in hopes we'd try it and enjoy it enough to purchase breakfast on Friday morning. Then I totally forgot the other question I had. I told him I did have another question, but it totally escaped my mind, to which he replied, "Was it about WiFi?" He read...What can I say, we wanted an escape this Thanksgiving. My daughter wanted to swim and I wanted to go somewhere I could relax and hide! I work retail,  and have lost my Mom and Grandmother, so I  am not a huge fan of the holidays. I try to make them fun for my daughter, but we try to go the nontraditional route sometimes.The Tuesday night before, I could only find a few hotels online that met my criteria and price range. I chose Marriott because at all the times we've stayed at one, it never seems to disappoint.  We didn't arrive until almost 1AM on Wednesday/Thursday, but had the best service ever when we checked in! I wish I had remembered this gentleman's name so he could receive the proper recognition! First, he went over all the usual items and then asked if I had any questions. I was really exhausted after working, and making the drive, so it took me a few minutes to gather my thoughts. Then I remembered, do they offer free breakfast? He told me it wasn't free, but he'd go ahead and comp our breakfasts in hopes we'd try it and enjoy it enough to purchase breakfast on Friday morning. Then I totally forgot the other question I had. I told him I did have another question, but it totally escaped my mind, to which he replied, "Was it about WiFi?" He read my mind! He then gave me all the info and asked if we needed a luggage rack. I told him no thank you, and realized he is the first one ever to ask if we needed a luggage rack after all the hotels we've ever visited. Our room was clean and comfortable. We quickly settled in and went to sleep. We tried to get up in time for breakfast, but we're just too tired. So unfortunately, I have no idea how their breakfast was. Since it was Thanksgiving, we received a note from the front desk that maid service would be minimal but to let them know if there was anything we needed. We weren't too concerned. We figured we could empty our trash ourselves and ask the front desk for anything else we needed. As we left our room to go get a bite, there were some maids in the hallway. I figured they would have long gone home because it was close to 3PM. Well when we returned, we came back to more toiletries, fresh linens and a clean room.My daughter and I swam in the pool for about an hour and also used the jacuzzi. It was nice because the pool at its deepest, was 5 feet, so I didn't have to be too nervous about my daughter not knowing how to swim. It was fun and there were only a few other people using it. We left the next morning right before noon. My only complaint with our stay has nothing to do with the hotel itself, it has to do with the other people staying there. A lot of them need to learn elevator etiquette. Please wait for the people in the elevator to exit, before you enter!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Kelly B, Assistant General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded December 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 5, 2015</t>
+  </si>
+  <si>
+    <t>What can I say, we wanted an escape this Thanksgiving. My daughter wanted to swim and I wanted to go somewhere I could relax and hide! I work retail,  and have lost my Mom and Grandmother, so I  am not a huge fan of the holidays. I try to make them fun for my daughter, but we try to go the nontraditional route sometimes.
+The Tuesday night before, I could only find a few hotels online that met my criteria and price range. I chose Marriott because at all the times we've stayed at one, it never seems to disappoint.  
+We didn't arrive until almost 1AM on Wednesday/Thursday, but had the best service ever when we checked in! I wish I had remembered this gentleman's name so he could receive the proper recognition! First, he went over all the usual items and then asked if I had any questions. I was really exhausted after working, and making the drive, so it took me a few minutes to gather my thoughts. Then I remembered, do they offer free breakfast? He told me it wasn't free, but he'd go ahead and comp our breakfasts in hopes we'd try it and enjoy it enough to purchase breakfast on Friday morning. Then I totally forgot the other question I had. I told him I did have another question, but it totally escaped my mind, to which he replied, "Was it about WiFi?" He read...What can I say, we wanted an escape this Thanksgiving. My daughter wanted to swim and I wanted to go somewhere I could relax and hide! I work retail,  and have lost my Mom and Grandmother, so I  am not a huge fan of the holidays. I try to make them fun for my daughter, but we try to go the nontraditional route sometimes.The Tuesday night before, I could only find a few hotels online that met my criteria and price range. I chose Marriott because at all the times we've stayed at one, it never seems to disappoint.  We didn't arrive until almost 1AM on Wednesday/Thursday, but had the best service ever when we checked in! I wish I had remembered this gentleman's name so he could receive the proper recognition! First, he went over all the usual items and then asked if I had any questions. I was really exhausted after working, and making the drive, so it took me a few minutes to gather my thoughts. Then I remembered, do they offer free breakfast? He told me it wasn't free, but he'd go ahead and comp our breakfasts in hopes we'd try it and enjoy it enough to purchase breakfast on Friday morning. Then I totally forgot the other question I had. I told him I did have another question, but it totally escaped my mind, to which he replied, "Was it about WiFi?" He read my mind! He then gave me all the info and asked if we needed a luggage rack. I told him no thank you, and realized he is the first one ever to ask if we needed a luggage rack after all the hotels we've ever visited. Our room was clean and comfortable. We quickly settled in and went to sleep. We tried to get up in time for breakfast, but we're just too tired. So unfortunately, I have no idea how their breakfast was. Since it was Thanksgiving, we received a note from the front desk that maid service would be minimal but to let them know if there was anything we needed. We weren't too concerned. We figured we could empty our trash ourselves and ask the front desk for anything else we needed. As we left our room to go get a bite, there were some maids in the hallway. I figured they would have long gone home because it was close to 3PM. Well when we returned, we came back to more toiletries, fresh linens and a clean room.My daughter and I swam in the pool for about an hour and also used the jacuzzi. It was nice because the pool at its deepest, was 5 feet, so I didn't have to be too nervous about my daughter not knowing how to swim. It was fun and there were only a few other people using it. We left the next morning right before noon. My only complaint with our stay has nothing to do with the hotel itself, it has to do with the other people staying there. A lot of them need to learn elevator etiquette. Please wait for the people in the elevator to exit, before you enter!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r324281681-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>324281681</t>
+  </si>
+  <si>
+    <t>11/03/2015</t>
+  </si>
+  <si>
+    <t>Another great courtyard</t>
+  </si>
+  <si>
+    <t>Stayed here for work and had a great stay.  Another good courtyard with friendly and helpful staffThe hotel is in good shape and locate just a short drive to the highway What I like best about the courtyard hotels is the bistro that has breakfast and dinner available MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Jessica B, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded November 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for work and had a great stay.  Another good courtyard with friendly and helpful staffThe hotel is in good shape and locate just a short drive to the highway What I like best about the courtyard hotels is the bistro that has breakfast and dinner available More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r323049311-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>323049311</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>No complaints here!</t>
+  </si>
+  <si>
+    <t>My younger daughter and I stayed here for two nights to attend a concert in Denver. The location was perfect, easy to find and easy to access the highway and other roads from here. The hotel is located on a service like road parallel to a busy road/highway, but I didn't hear any traffic. The downstairs cafe was perfect, offered just enough food and drink when needed. There were plenty of other restaurants near by as well. The hotel staff I encountered were amazing; friendly, helpful, social, etc. Parking was great, lots of space. Room was clean, bed was comfortable, shower was powerful and hot. I do not have one single complaint about our stay here, almost seemed too easy. I would totally recommend this hotel to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>My younger daughter and I stayed here for two nights to attend a concert in Denver. The location was perfect, easy to find and easy to access the highway and other roads from here. The hotel is located on a service like road parallel to a busy road/highway, but I didn't hear any traffic. The downstairs cafe was perfect, offered just enough food and drink when needed. There were plenty of other restaurants near by as well. The hotel staff I encountered were amazing; friendly, helpful, social, etc. Parking was great, lots of space. Room was clean, bed was comfortable, shower was powerful and hot. I do not have one single complaint about our stay here, almost seemed too easy. I would totally recommend this hotel to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r312449585-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>312449585</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Fine for what I needed</t>
+  </si>
+  <si>
+    <t>The hotel was more than adequate for a recent two-night stay in Denver.  All I wanted was a clean and pleasant facility for a reasonable price, with good Internet connections, and it delivered on that.  Being located in an office park, this facility is probably better suited for business travelers, as being located in an extensive office park, there are no attractions or amenities within walking distance.  A car is necessary.  It was, however, a five-minute drive from my destination, so its location was perfect for me.  Rooms were quiet, staff friendly and helpful.  Dining facilities within the property are extremely limited and on the expensive side. I would not describe the hotel as an elegant destination (if one is seeking extensive amenities), but certainly functional and extremely reasonable in cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel was more than adequate for a recent two-night stay in Denver.  All I wanted was a clean and pleasant facility for a reasonable price, with good Internet connections, and it delivered on that.  Being located in an office park, this facility is probably better suited for business travelers, as being located in an extensive office park, there are no attractions or amenities within walking distance.  A car is necessary.  It was, however, a five-minute drive from my destination, so its location was perfect for me.  Rooms were quiet, staff friendly and helpful.  Dining facilities within the property are extremely limited and on the expensive side. I would not describe the hotel as an elegant destination (if one is seeking extensive amenities), but certainly functional and extremely reasonable in cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r297368744-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>297368744</t>
+  </si>
+  <si>
+    <t>08/09/2015</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>My wife and I traveled to Lakewood, CO to attend a John Fogerty concert and stayed at the Courtyard in Lakewood for two nights.  Our experience at this Marriott property was great!  The staff went out of their way to please customers.  I really want to acknowledge the "First Class" service of Nicholas George, Operations Manager.  When I asked him where some nice restaurants were, he not only mentioned a few but gave us directions on some varieties.  We selected one he recommended, based on his description, and it was fantastic, exactly what we were looking for.  He also offered similar opinions on additional areas and we found his recommendations were very helpful to our weekend experience.  This is the kind of people Marriott needs to be representing the name of the company!  Congratulation on having such a great staff!  We will return to this property during our next visit to the Denver area!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Brennan C, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded August 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I traveled to Lakewood, CO to attend a John Fogerty concert and stayed at the Courtyard in Lakewood for two nights.  Our experience at this Marriott property was great!  The staff went out of their way to please customers.  I really want to acknowledge the "First Class" service of Nicholas George, Operations Manager.  When I asked him where some nice restaurants were, he not only mentioned a few but gave us directions on some varieties.  We selected one he recommended, based on his description, and it was fantastic, exactly what we were looking for.  He also offered similar opinions on additional areas and we found his recommendations were very helpful to our weekend experience.  This is the kind of people Marriott needs to be representing the name of the company!  Congratulation on having such a great staff!  We will return to this property during our next visit to the Denver area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r296771133-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>296771133</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Stayed here from July 19 - 25 for work. Everyone was friendly especially those who were assigned in the restaurant. The rooms were okay. Beds were comfortable. There's not much to see around the area. Hard to move around if you don't have a car. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Brennan C, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 11, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here from July 19 - 25 for work. Everyone was friendly especially those who were assigned in the restaurant. The rooms were okay. Beds were comfortable. There's not much to see around the area. Hard to move around if you don't have a car. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r294838188-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>294838188</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel with Friendly Staff</t>
+  </si>
+  <si>
+    <t>Stayed one night in the Courtyard.  The front desk staff were very polite and friendly upon arrival.  The room was clean and extremely well maintained.  Bed was comfortable and we got a great nights sleep.  Had to leave at 5 am, so I cant comment on the breakfast.  I would not hesitate to stay here again.   Very nice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Jessica B, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded August 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2015</t>
+  </si>
+  <si>
+    <t>Stayed one night in the Courtyard.  The front desk staff were very polite and friendly upon arrival.  The room was clean and extremely well maintained.  Bed was comfortable and we got a great nights sleep.  Had to leave at 5 am, so I cant comment on the breakfast.  I would not hesitate to stay here again.   Very nice hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r290125543-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>290125543</t>
+  </si>
+  <si>
+    <t>07/18/2015</t>
+  </si>
+  <si>
+    <t>Marriot does it again</t>
+  </si>
+  <si>
+    <t>This is a nice clean well run property. Beds are full size (not queen) and each room has micro and fridge. The only downside is lack of breakfast and front desk, website or central res do not offer meal upgrade I have seen mentioned in gm comments. MoreShow less</t>
+  </si>
+  <si>
+    <t>Brennan C, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded July 19, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2015</t>
+  </si>
+  <si>
+    <t>This is a nice clean well run property. Beds are full size (not queen) and each room has micro and fridge. The only downside is lack of breakfast and front desk, website or central res do not offer meal upgrade I have seen mentioned in gm comments. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r286411368-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>286411368</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Consistently Courtyard, u to expectations</t>
+  </si>
+  <si>
+    <t>This Courtyard came through quite well.  Nice room, quite clean, quiet, accommodating staff.  Food service very limited but adequate.  Bar service available.  A little hard to get to as their website directions and most GPS don't recognize an important Frontage Road.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Brennan C, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2015</t>
+  </si>
+  <si>
+    <t>This Courtyard came through quite well.  Nice room, quite clean, quiet, accommodating staff.  Food service very limited but adequate.  Bar service available.  A little hard to get to as their website directions and most GPS don't recognize an important Frontage Road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r285767868-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>285767868</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Good property, no extras</t>
+  </si>
+  <si>
+    <t>This is a good property and has everything you need for a good nights rest, but it isn't extra ordinary. My biggest complaint is that there is no inclusive breakfast. They do have a Bistro where you can purchase breakfast items. But no free coffee! The place is a bit hard to find if you have never been. Like the last reviewer, they were unable to find my Marriott Reward number, too.  MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a good property and has everything you need for a good nights rest, but it isn't extra ordinary. My biggest complaint is that there is no inclusive breakfast. They do have a Bistro where you can purchase breakfast items. But no free coffee! The place is a bit hard to find if you have never been. Like the last reviewer, they were unable to find my Marriott Reward number, too.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r272519738-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>272519738</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>They helped keep a special day special</t>
+  </si>
+  <si>
+    <t>We hosted a celebration of life after a family member's funeral here. Ashley arranged everything for us - a nice meeting room, with a very nice brunch. No one batted an eye when the 30 people we planned for turned into an unexpected 60 people!! (why don't folks RSVP, hmmmm?) Anyway, no one went without food or drink. BJ, the assistant manager, was more than gracious. When we couldnt hook up a computer t the AV system, staffers went to local stores to buy an adapter!  This is a very nice and well-managed property, along with its sister property the Residence Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>We hosted a celebration of life after a family member's funeral here. Ashley arranged everything for us - a nice meeting room, with a very nice brunch. No one batted an eye when the 30 people we planned for turned into an unexpected 60 people!! (why don't folks RSVP, hmmmm?) Anyway, no one went without food or drink. BJ, the assistant manager, was more than gracious. When we couldnt hook up a computer t the AV system, staffers went to local stores to buy an adapter!  This is a very nice and well-managed property, along with its sister property the Residence Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r265330653-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>265330653</t>
+  </si>
+  <si>
+    <t>04/12/2015</t>
+  </si>
+  <si>
+    <t>I was so very impressed for my first Courtyard Marriott stay!</t>
+  </si>
+  <si>
+    <t>From the minute I checked in with the help of a wonderful staff member, I was highly impressed. This place was immaculate and well decorated, The rooms are large and comfortable with a sitting area in a regular room (not a suite). I was so impressed that I came home and suggested to my husband that we stay here more often when traveling within the United States. There is also a coffee bar that has fresh muffins, etc., but will make fresh, hot food for breakfast, not the same old eggs, sausage, biscuits and gravy under a light! I highly recommend this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>From the minute I checked in with the help of a wonderful staff member, I was highly impressed. This place was immaculate and well decorated, The rooms are large and comfortable with a sitting area in a regular room (not a suite). I was so impressed that I came home and suggested to my husband that we stay here more often when traveling within the United States. There is also a coffee bar that has fresh muffins, etc., but will make fresh, hot food for breakfast, not the same old eggs, sausage, biscuits and gravy under a light! I highly recommend this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r250490525-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>250490525</t>
+  </si>
+  <si>
+    <t>01/22/2015</t>
+  </si>
+  <si>
+    <t>Staff terrific</t>
+  </si>
+  <si>
+    <t>the staff is outstanding and the coffee bar nice to have.  Laundry, indoor pool, workout room, all great.  I had a minor issue with the heater, and they moved me to another room where the thermostat worked.  Overall, exactly what I expected from a courtyard.  Would stay again for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Jessica B, Front Office Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded January 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2015</t>
+  </si>
+  <si>
+    <t>the staff is outstanding and the coffee bar nice to have.  Laundry, indoor pool, workout room, all great.  I had a minor issue with the heater, and they moved me to another room where the thermostat worked.  Overall, exactly what I expected from a courtyard.  Would stay again for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r221557734-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>221557734</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Elite Marriott Member Walked</t>
+  </si>
+  <si>
+    <t>Have spent over 500 nights in Marriott Hotels globally and have to rank this one at the BOTTOM. I have a confirmed Elite reservation and was walked and left without a room at 0230 in the morning. This happened despite having called the hotel to remind them of my late arrival. 
+NOTHING revs me up more than being stranding without a room or without any options in the middle of the night. This was compounded by the Denver market being in a sold out situation. You had all my contact information and why one bothered to call, email, SMS is outrageous. Especially, when I had contacted the hotel to avoid this very issue.
+Their "solution" was to put me up in a Quality Inn (hardly a comparable hotel at best) But the best part of this is that property was also sold out. So, you gave up my room and then tried to send me to an off brand hotel that also did not have a room? That is just brilliant. 
+Even worse, I contacted the "Elite Line", which is really an oxymoron at 0230. 
+Betting I won't hear from the hotel manager and have emailed and left voice messages. I will assume correctly Jennifer has no intention of making this right. Quite a horrible experience and again, this property goes down as Failure is our Motto. I get it things come up, but it is how you resolve things...Have spent over 500 nights in Marriott Hotels globally and have to rank this one at the BOTTOM. I have a confirmed Elite reservation and was walked and left without a room at 0230 in the morning. This happened despite having called the hotel to remind them of my late arrival. NOTHING revs me up more than being stranding without a room or without any options in the middle of the night. This was compounded by the Denver market being in a sold out situation. You had all my contact information and why one bothered to call, email, SMS is outrageous. Especially, when I had contacted the hotel to avoid this very issue.Their "solution" was to put me up in a Quality Inn (hardly a comparable hotel at best) But the best part of this is that property was also sold out. So, you gave up my room and then tried to send me to an off brand hotel that also did not have a room? That is just brilliant. Even worse, I contacted the "Elite Line", which is really an oxymoron at 0230. Betting I won't hear from the hotel manager and have emailed and left voice messages. I will assume correctly Jennifer has no intention of making this right. Quite a horrible experience and again, this property goes down as Failure is our Motto. I get it things come up, but it is how you resolve things that matter most. That did NOT happen and there appears to be have been zero effort to ensure I was sorted out. Off to Tweet this to my 19,000 followers as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Jessica B, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded August 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2014</t>
+  </si>
+  <si>
+    <t>Have spent over 500 nights in Marriott Hotels globally and have to rank this one at the BOTTOM. I have a confirmed Elite reservation and was walked and left without a room at 0230 in the morning. This happened despite having called the hotel to remind them of my late arrival. 
+NOTHING revs me up more than being stranding without a room or without any options in the middle of the night. This was compounded by the Denver market being in a sold out situation. You had all my contact information and why one bothered to call, email, SMS is outrageous. Especially, when I had contacted the hotel to avoid this very issue.
+Their "solution" was to put me up in a Quality Inn (hardly a comparable hotel at best) But the best part of this is that property was also sold out. So, you gave up my room and then tried to send me to an off brand hotel that also did not have a room? That is just brilliant. 
+Even worse, I contacted the "Elite Line", which is really an oxymoron at 0230. 
+Betting I won't hear from the hotel manager and have emailed and left voice messages. I will assume correctly Jennifer has no intention of making this right. Quite a horrible experience and again, this property goes down as Failure is our Motto. I get it things come up, but it is how you resolve things...Have spent over 500 nights in Marriott Hotels globally and have to rank this one at the BOTTOM. I have a confirmed Elite reservation and was walked and left without a room at 0230 in the morning. This happened despite having called the hotel to remind them of my late arrival. NOTHING revs me up more than being stranding without a room or without any options in the middle of the night. This was compounded by the Denver market being in a sold out situation. You had all my contact information and why one bothered to call, email, SMS is outrageous. Especially, when I had contacted the hotel to avoid this very issue.Their "solution" was to put me up in a Quality Inn (hardly a comparable hotel at best) But the best part of this is that property was also sold out. So, you gave up my room and then tried to send me to an off brand hotel that also did not have a room? That is just brilliant. Even worse, I contacted the "Elite Line", which is really an oxymoron at 0230. Betting I won't hear from the hotel manager and have emailed and left voice messages. I will assume correctly Jennifer has no intention of making this right. Quite a horrible experience and again, this property goes down as Failure is our Motto. I get it things come up, but it is how you resolve things that matter most. That did NOT happen and there appears to be have been zero effort to ensure I was sorted out. Off to Tweet this to my 19,000 followers as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r217991452-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>217991452</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Nothing spectacular, nothing horrible.  Good clean room.  Desk worked to move us when we first got an accessible room.  No free breakfast here.  Decent indoor pool and hot tub and small fitness room.  Had a special rate for Colorado Christian University so couldn't beat the value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r217699393-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>217699393</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Do not stay at this hotel. Problem after problem. Car vandalized in front hotel parking lot.</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel with my mom, for a mother-daughter getaway.  Right away we had issues. The bathroom door would not close. Notified the front desk and they sent a maintenance technician. He was young, inexperienced and smelled like he hadn't showered for days. We left him to fix the door but when we returned, we found the door was even worse and there was no note or message from the hotel. Called front desk and staff member was not aware of issue. Asked for new room but was told hotel was booked and offered free breakfast. Was told management would be notified, but next day had to call again, as message was not passed. But finally door got fixed. THEN...discovered that someone attempted to steal my car. Drivers side window seal was damaged as was the lock guard, overall there was noticeable damage. Reported it to hotel and filled out incident report. Asked for a copy of report and initially told I would get one. Then told that per HR I could only get one if I contacted police. So I contacted police and filed report. Gave report number to hotel, as requested, but still told that I could not get copy. Was told that hotel would speak to police or insurance company but not to me. They were not at all concerned that my car was damaged in their parking lot directly in front of hotel....I recently stayed at this hotel with my mom, for a mother-daughter getaway.  Right away we had issues. The bathroom door would not close. Notified the front desk and they sent a maintenance technician. He was young, inexperienced and smelled like he hadn't showered for days. We left him to fix the door but when we returned, we found the door was even worse and there was no note or message from the hotel. Called front desk and staff member was not aware of issue. Asked for new room but was told hotel was booked and offered free breakfast. Was told management would be notified, but next day had to call again, as message was not passed. But finally door got fixed. THEN...discovered that someone attempted to steal my car. Drivers side window seal was damaged as was the lock guard, overall there was noticeable damage. Reported it to hotel and filled out incident report. Asked for a copy of report and initially told I would get one. Then told that per HR I could only get one if I contacted police. So I contacted police and filed report. Gave report number to hotel, as requested, but still told that I could not get copy. Was told that hotel would speak to police or insurance company but not to me. They were not at all concerned that my car was damaged in their parking lot directly in front of hotel. Overall, really ad experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Jessica B, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded August 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2014</t>
+  </si>
+  <si>
+    <t>I recently stayed at this hotel with my mom, for a mother-daughter getaway.  Right away we had issues. The bathroom door would not close. Notified the front desk and they sent a maintenance technician. He was young, inexperienced and smelled like he hadn't showered for days. We left him to fix the door but when we returned, we found the door was even worse and there was no note or message from the hotel. Called front desk and staff member was not aware of issue. Asked for new room but was told hotel was booked and offered free breakfast. Was told management would be notified, but next day had to call again, as message was not passed. But finally door got fixed. THEN...discovered that someone attempted to steal my car. Drivers side window seal was damaged as was the lock guard, overall there was noticeable damage. Reported it to hotel and filled out incident report. Asked for a copy of report and initially told I would get one. Then told that per HR I could only get one if I contacted police. So I contacted police and filed report. Gave report number to hotel, as requested, but still told that I could not get copy. Was told that hotel would speak to police or insurance company but not to me. They were not at all concerned that my car was damaged in their parking lot directly in front of hotel....I recently stayed at this hotel with my mom, for a mother-daughter getaway.  Right away we had issues. The bathroom door would not close. Notified the front desk and they sent a maintenance technician. He was young, inexperienced and smelled like he hadn't showered for days. We left him to fix the door but when we returned, we found the door was even worse and there was no note or message from the hotel. Called front desk and staff member was not aware of issue. Asked for new room but was told hotel was booked and offered free breakfast. Was told management would be notified, but next day had to call again, as message was not passed. But finally door got fixed. THEN...discovered that someone attempted to steal my car. Drivers side window seal was damaged as was the lock guard, overall there was noticeable damage. Reported it to hotel and filled out incident report. Asked for a copy of report and initially told I would get one. Then told that per HR I could only get one if I contacted police. So I contacted police and filed report. Gave report number to hotel, as requested, but still told that I could not get copy. Was told that hotel would speak to police or insurance company but not to me. They were not at all concerned that my car was damaged in their parking lot directly in front of hotel. Overall, really ad experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r215628145-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>215628145</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>Very Good Experience</t>
+  </si>
+  <si>
+    <t>I thought this hotel was very well run. The pool wasn't too busy. The guy at the front desk was genuinely friendly. The room was clean. We were always able to find a good parking place.It was a good price for the quality of the room and facilities.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r204029323-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>204029323</t>
+  </si>
+  <si>
+    <t>05/04/2014</t>
+  </si>
+  <si>
+    <t>Clean and So friendly</t>
+  </si>
+  <si>
+    <t>My husband and I headed up to the Southwest Denver Beer Festival and decided to stay here as it was the closest Marriott.  They let us check in early and got us out quick so we could get to the festival.  When we got home, we were able to get water bottles and relax.  The next morning we went to the gym, which was ok.  We asked for some headphones and they were out, but no biggie.  Was able to get a good work out in anyway.  We had a peaceful stay, which is exactly what we needed, so thank you!</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r203646251-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>203646251</t>
+  </si>
+  <si>
+    <t>05/01/2014</t>
+  </si>
+  <si>
+    <t>Understaffed and No Free Decent Speed Internet</t>
+  </si>
+  <si>
+    <t>Over the past three or four months I've started to sour on the Courtyard chain as they seem to all share similar issues.  
+Upon arrival there was a queue of five people in front of me and only one lone desk agent who was friendly yet obviously stressed at the ever growing line of people in front of her.  
+After finally getting checked in I decided to head to the Bistro area to grab a sandwich to take back to my room with me.   Again there were four food orders queued up as well as the poor friendly guy trying to play bartender as well.   He's make a drink, half make one of the order, get another drink order all while continuously apologizing "sorry for your wait".  
+Between the ridiculous check-in line and monumental wait for food I was in the lobby area waiting on something for an hour and fifteen minutes.  Unacceptable. 
+The hallways and public areas were quite clean and visually appealing.  
+Upon arrival to the room I did notice that it was clean.  The bed was comfortable with the typical nice Marriott bedding.   The disappointing elements of the room were the severely stained carpeting and bathroom that featured cracked tiles.  
+Another huge disappointment is the direction that the Courtyard chain is going to to force you to pay for anything remotely resembling decent internet access.   The free option is what they are calling "Internet Lite" which I...Over the past three or four months I've started to sour on the Courtyard chain as they seem to all share similar issues.  Upon arrival there was a queue of five people in front of me and only one lone desk agent who was friendly yet obviously stressed at the ever growing line of people in front of her.  After finally getting checked in I decided to head to the Bistro area to grab a sandwich to take back to my room with me.   Again there were four food orders queued up as well as the poor friendly guy trying to play bartender as well.   He's make a drink, half make one of the order, get another drink order all while continuously apologizing "sorry for your wait".  Between the ridiculous check-in line and monumental wait for food I was in the lobby area waiting on something for an hour and fifteen minutes.  Unacceptable. The hallways and public areas were quite clean and visually appealing.  Upon arrival to the room I did notice that it was clean.  The bed was comfortable with the typical nice Marriott bedding.   The disappointing elements of the room were the severely stained carpeting and bathroom that featured cracked tiles.  Another huge disappointment is the direction that the Courtyard chain is going to to force you to pay for anything remotely resembling decent internet access.   The free option is what they are calling "Internet Lite" which I call "Internet Might"....load even the most graphics free website in 2 solid minutes.   Ridiculous.  Overall this stay was pure disappointment as between no free internet and improper staffing you kind of feel that the premium rates that Marriott commands aren't justified.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Jessica B, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2014</t>
+  </si>
+  <si>
+    <t>Over the past three or four months I've started to sour on the Courtyard chain as they seem to all share similar issues.  
+Upon arrival there was a queue of five people in front of me and only one lone desk agent who was friendly yet obviously stressed at the ever growing line of people in front of her.  
+After finally getting checked in I decided to head to the Bistro area to grab a sandwich to take back to my room with me.   Again there were four food orders queued up as well as the poor friendly guy trying to play bartender as well.   He's make a drink, half make one of the order, get another drink order all while continuously apologizing "sorry for your wait".  
+Between the ridiculous check-in line and monumental wait for food I was in the lobby area waiting on something for an hour and fifteen minutes.  Unacceptable. 
+The hallways and public areas were quite clean and visually appealing.  
+Upon arrival to the room I did notice that it was clean.  The bed was comfortable with the typical nice Marriott bedding.   The disappointing elements of the room were the severely stained carpeting and bathroom that featured cracked tiles.  
+Another huge disappointment is the direction that the Courtyard chain is going to to force you to pay for anything remotely resembling decent internet access.   The free option is what they are calling "Internet Lite" which I...Over the past three or four months I've started to sour on the Courtyard chain as they seem to all share similar issues.  Upon arrival there was a queue of five people in front of me and only one lone desk agent who was friendly yet obviously stressed at the ever growing line of people in front of her.  After finally getting checked in I decided to head to the Bistro area to grab a sandwich to take back to my room with me.   Again there were four food orders queued up as well as the poor friendly guy trying to play bartender as well.   He's make a drink, half make one of the order, get another drink order all while continuously apologizing "sorry for your wait".  Between the ridiculous check-in line and monumental wait for food I was in the lobby area waiting on something for an hour and fifteen minutes.  Unacceptable. The hallways and public areas were quite clean and visually appealing.  Upon arrival to the room I did notice that it was clean.  The bed was comfortable with the typical nice Marriott bedding.   The disappointing elements of the room were the severely stained carpeting and bathroom that featured cracked tiles.  Another huge disappointment is the direction that the Courtyard chain is going to to force you to pay for anything remotely resembling decent internet access.   The free option is what they are calling "Internet Lite" which I call "Internet Might"....load even the most graphics free website in 2 solid minutes.   Ridiculous.  Overall this stay was pure disappointment as between no free internet and improper staffing you kind of feel that the premium rates that Marriott commands aren't justified.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r197132674-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>197132674</t>
+  </si>
+  <si>
+    <t>03/12/2014</t>
+  </si>
+  <si>
+    <t>Old looking</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel March 2014 on business for 3 nights. This place is a little dated, dark carpets and decor, and the window were very dirty. As i did not have my own transport, i was a little isolated. No shops within walking distance. Went down to breakfast on the first morning and walked away after 10 mins. The person behind the counter was so busy sorting out other peoples food, They were not interested in serving me. And after that i had breakfast elsewhere the rest of the time.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r178131902-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>178131902</t>
+  </si>
+  <si>
+    <t>09/22/2013</t>
+  </si>
+  <si>
+    <t>Disappointed in restaurant</t>
+  </si>
+  <si>
+    <t>Like the Marriott Courtyard but disappointed that they took away the free breakfast.  Also, arrived in time for lunch and needed something quick. They do not offer anything at lunch time.  Prefer a full service hotel.  Will think twice before staying at another Courtyard. Otherwise hotel is fine. Good bed good pillows just wish they hadn't changed the restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>DENLKGM, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded October 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2013</t>
+  </si>
+  <si>
+    <t>Like the Marriott Courtyard but disappointed that they took away the free breakfast.  Also, arrived in time for lunch and needed something quick. They do not offer anything at lunch time.  Prefer a full service hotel.  Will think twice before staying at another Courtyard. Otherwise hotel is fine. Good bed good pillows just wish they hadn't changed the restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r177597451-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>177597451</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>Our trip to Denver area</t>
+  </si>
+  <si>
+    <t>Spent 5 days here. Very nice, clean, nice location, friendly staff, good price, would stay here again. Now my only problem was it was a little difficult to find. Streets are a little confusing if you come in from Wadsworth. I fussed a little to the staff that I drove around about 30 min. looking for it and asked for a couple of beers for my troubles. They gladly bought me two. A great plus. The only other negative was, I believe it is about time to change the beds. I felt like I was rolling off the side of the bed. It was the alarm clock side.MoreShow less</t>
+  </si>
+  <si>
+    <t>Spent 5 days here. Very nice, clean, nice location, friendly staff, good price, would stay here again. Now my only problem was it was a little difficult to find. Streets are a little confusing if you come in from Wadsworth. I fussed a little to the staff that I drove around about 30 min. looking for it and asked for a couple of beers for my troubles. They gladly bought me two. A great plus. The only other negative was, I believe it is about time to change the beds. I felt like I was rolling off the side of the bed. It was the alarm clock side.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r173521030-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>173521030</t>
+  </si>
+  <si>
+    <t>08/22/2013</t>
+  </si>
+  <si>
+    <t>Very nice property</t>
+  </si>
+  <si>
+    <t>Our night at the Courtyard by Marriott was very comfortable after the air conditioner was changed out by a very nice young man. The hotel was full so we could not move to another room.  Everything else worked fine.  Comfortable bed. We did hear road noise from the adjacent highway during the night--thicker noise curtains would help, but all in all, a very good hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Our night at the Courtyard by Marriott was very comfortable after the air conditioner was changed out by a very nice young man. The hotel was full so we could not move to another room.  Everything else worked fine.  Comfortable bed. We did hear road noise from the adjacent highway during the night--thicker noise curtains would help, but all in all, a very good hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r173031402-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>173031402</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This Hotel has the Best Staff and managers ever. The maids are very helpful and do everything to make ur stay a great one. We stayed in 2 rooms for 4 days...Will be back there for our next concert at the Red Rock. Close to great shopping, good food on property or very close. Wonderful placeMoreShow less</t>
+  </si>
+  <si>
+    <t>This Hotel has the Best Staff and managers ever. The maids are very helpful and do everything to make ur stay a great one. We stayed in 2 rooms for 4 days...Will be back there for our next concert at the Red Rock. Close to great shopping, good food on property or very close. Wonderful placeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r168574817-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>168574817</t>
+  </si>
+  <si>
+    <t>07/22/2013</t>
+  </si>
+  <si>
+    <t>Very friendly, Cody!</t>
+  </si>
+  <si>
+    <t>Just stayed one night but Cody made our stay very enjoyable. He was there when we checked and when we checked out the next day!  Room very clean, and bed very comfy. Had breakfast delivered from the Bistro, it was very good and the delivery person was exceptionally nice!  All around a great experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Just stayed one night but Cody made our stay very enjoyable. He was there when we checked and when we checked out the next day!  Room very clean, and bed very comfy. Had breakfast delivered from the Bistro, it was very good and the delivery person was exceptionally nice!  All around a great experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r161456496-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>161456496</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>Total Service</t>
+  </si>
+  <si>
+    <t>Let me start by saying we were lost. Finally called Nick and he helped us get to hotel!!! Room was great, bed excellent, one of the best showers and nice hot water.  Would stay again!!!  Once you know where you are, there are many places to eat.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Let me start by saying we were lost. Finally called Nick and he helped us get to hotel!!! Room was great, bed excellent, one of the best showers and nice hot water.  Would stay again!!!  Once you know where you are, there are many places to eat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r161009454-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>161009454</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>It was our first visit to Denver and I found this hotel through Priceline. Although they were doing some renovations in the lobby, it didn't really affect. This property has recently renovated all of their rooms and they're modern and clean. Great location into downtown or to explore Golden and other nearby communities. Good value, excellent staff and having the bistro on site was great.  We enjoyed Starbucks coffee each morning along with late-night snacks.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r160366882-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>160366882</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>Quiet and Relaxing Stay</t>
+  </si>
+  <si>
+    <t>We were here for sightseeing around Denver and Colorado Springs and had a great visit.  The staff was extremely helpful and always welcoming.  We really enjoyed the area as well as it was very close to downtown Denver and even closer to Red Rocks.  The construction going on in the lobby was a 10' x 10' section of tile being replaced so not a big deal and very easy to walk around.  Overall things were very quiet and clean and at a great price as well.  We would absolutely stay here again and recommend it to any family/friends staying in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r155542414-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>155542414</t>
+  </si>
+  <si>
+    <t>03/24/2013</t>
+  </si>
+  <si>
+    <t>Great Experience!</t>
+  </si>
+  <si>
+    <t>We just returned from a short spring break "stay- cation" at the Courtyard by Marriott in Lakewood, Colorado.  My two young kids and I wanted to escape a snowy day with some time at an indoor pool, hot tub and junk food. 
+The hotel has obviously been recently updated. Everything looked shiny and clean in the lobby, front desk, hallways and elevator area. Our room was on the second floor and we chose a room with a king size bed and a pull out sofa sleeper. Although the room size is smaller than that of a newer hotel, it was cozy, nicely decorated, served our needs just fine and was very clean.  This was the first time in a long time I have stayed in a hotel (including luxury and over priced hotels) where upon arrival  I have not found a long black hair on the shower wall, or a small pile of hair and fuzz in the corners of the bathroom. Obviously housekeeping is doing a good job.   A previous review had mentioned that the bathrooms were small, but I thought the bath and toilet area was adequate. I hate stepping out of a shower clean and my calf rubbing against the toilet. Gross!  That was not the case here. I personally thought that the bath/toilet area was larger than some of the other places I have stayed. I suppose it is a matter of perspective on these issues...We just returned from a short spring break "stay- cation" at the Courtyard by Marriott in Lakewood, Colorado.  My two young kids and I wanted to escape a snowy day with some time at an indoor pool, hot tub and junk food. The hotel has obviously been recently updated. Everything looked shiny and clean in the lobby, front desk, hallways and elevator area. Our room was on the second floor and we chose a room with a king size bed and a pull out sofa sleeper. Although the room size is smaller than that of a newer hotel, it was cozy, nicely decorated, served our needs just fine and was very clean.  This was the first time in a long time I have stayed in a hotel (including luxury and over priced hotels) where upon arrival  I have not found a long black hair on the shower wall, or a small pile of hair and fuzz in the corners of the bathroom. Obviously housekeeping is doing a good job.   A previous review had mentioned that the bathrooms were small, but I thought the bath and toilet area was adequate. I hate stepping out of a shower clean and my calf rubbing against the toilet. Gross!  That was not the case here. I personally thought that the bath/toilet area was larger than some of the other places I have stayed. I suppose it is a matter of perspective on these issues as is the fact that the vanity and bathroom sink is on the outside of the toilet/bath door. I like this set up a lot while others may not.WiFi was free and worked fine. There was plenty of free parking and a well it parking lot.The neighborhood is nice and we never felt unsafe. There is a Denny's and Old Chicago's close by as well as several other restaurants just a minute or two away.  There is a workout room. It looked clean and well kept. However, we did not use the equipment. The heat worked great.  The bed was very comfortable and the linens were nice.  We had a quiet room with ample television channels.During the 20+ hours we were there nearly half was spent in the pool area. There is plenty of seating.  The pool was clean and warm as was the hot tub. However, the pool deck area was pretty dirty during out entire stay. There were old band aids on the pool deck that where there when we arrived and were still there when we left. Lots of hair, debris, lost room key cards etc.  Although this lack of overall cleanliness on the pool deck was clearly the hotel's lack of attention, it did not help that other guests would use towels and just let them lay on the floor when there was a dirty towel bin conveniently located in the room.  The disrespect of other pool patrons is by no means the hotel's fault. However, the fact that the same dirty towels were laying in the same spot for nearly the duration of our stay is due to lack of staff attention.There is an outdoor patio area just off from the pool area. We could not use it due to the snow. However, it looked very nice with ample seating, tables with umbrellas and I even saw a barbecue grill. We did not indulge in the Bistro. It is certainly a nice option to have on site. But, after reading past unfavorable bistro reviews and also checking out the hefty prices, we opted to eat a banana and granola bar in our room that we had brought.I would also like to point out to the hotel that the "Refresh Your Routine" hotel information book in the rooms states that there is complimentary coffee in the lobby served daily from 5:00-10:00 a.m. and 5:00-8:00p.m.  However, this is not the case. Not a deal breaker but something I thought I would point out. We stay in hotels often and it seems like nearly every one has a misprint and need to update the amenities list, etc. These misprints can range from complimentary coffee to as far as a pool or hot tub  (when there really is not one).  I asked my kids (6 and 7) when we left what I should say in this review.  They both agreed that the pool was AWESOME and my daughter though the pull out sofa sleeper was super cool and in her 6 year old words..."ultra comfortable". They also thought the front desk staff was very nice.  I would agree with their comments. I'd also like to say that check in and out was a breeze and Nick at the front desk was helpful and friendly.I would recommend this hotel to others. I would stay here again. If you are a AAA member, be sure to ask about discounts when booking. Safe travels.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>DENLKGM, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>We just returned from a short spring break "stay- cation" at the Courtyard by Marriott in Lakewood, Colorado.  My two young kids and I wanted to escape a snowy day with some time at an indoor pool, hot tub and junk food. 
+The hotel has obviously been recently updated. Everything looked shiny and clean in the lobby, front desk, hallways and elevator area. Our room was on the second floor and we chose a room with a king size bed and a pull out sofa sleeper. Although the room size is smaller than that of a newer hotel, it was cozy, nicely decorated, served our needs just fine and was very clean.  This was the first time in a long time I have stayed in a hotel (including luxury and over priced hotels) where upon arrival  I have not found a long black hair on the shower wall, or a small pile of hair and fuzz in the corners of the bathroom. Obviously housekeeping is doing a good job.   A previous review had mentioned that the bathrooms were small, but I thought the bath and toilet area was adequate. I hate stepping out of a shower clean and my calf rubbing against the toilet. Gross!  That was not the case here. I personally thought that the bath/toilet area was larger than some of the other places I have stayed. I suppose it is a matter of perspective on these issues...We just returned from a short spring break "stay- cation" at the Courtyard by Marriott in Lakewood, Colorado.  My two young kids and I wanted to escape a snowy day with some time at an indoor pool, hot tub and junk food. The hotel has obviously been recently updated. Everything looked shiny and clean in the lobby, front desk, hallways and elevator area. Our room was on the second floor and we chose a room with a king size bed and a pull out sofa sleeper. Although the room size is smaller than that of a newer hotel, it was cozy, nicely decorated, served our needs just fine and was very clean.  This was the first time in a long time I have stayed in a hotel (including luxury and over priced hotels) where upon arrival  I have not found a long black hair on the shower wall, or a small pile of hair and fuzz in the corners of the bathroom. Obviously housekeeping is doing a good job.   A previous review had mentioned that the bathrooms were small, but I thought the bath and toilet area was adequate. I hate stepping out of a shower clean and my calf rubbing against the toilet. Gross!  That was not the case here. I personally thought that the bath/toilet area was larger than some of the other places I have stayed. I suppose it is a matter of perspective on these issues as is the fact that the vanity and bathroom sink is on the outside of the toilet/bath door. I like this set up a lot while others may not.WiFi was free and worked fine. There was plenty of free parking and a well it parking lot.The neighborhood is nice and we never felt unsafe. There is a Denny's and Old Chicago's close by as well as several other restaurants just a minute or two away.  There is a workout room. It looked clean and well kept. However, we did not use the equipment. The heat worked great.  The bed was very comfortable and the linens were nice.  We had a quiet room with ample television channels.During the 20+ hours we were there nearly half was spent in the pool area. There is plenty of seating.  The pool was clean and warm as was the hot tub. However, the pool deck area was pretty dirty during out entire stay. There were old band aids on the pool deck that where there when we arrived and were still there when we left. Lots of hair, debris, lost room key cards etc.  Although this lack of overall cleanliness on the pool deck was clearly the hotel's lack of attention, it did not help that other guests would use towels and just let them lay on the floor when there was a dirty towel bin conveniently located in the room.  The disrespect of other pool patrons is by no means the hotel's fault. However, the fact that the same dirty towels were laying in the same spot for nearly the duration of our stay is due to lack of staff attention.There is an outdoor patio area just off from the pool area. We could not use it due to the snow. However, it looked very nice with ample seating, tables with umbrellas and I even saw a barbecue grill. We did not indulge in the Bistro. It is certainly a nice option to have on site. But, after reading past unfavorable bistro reviews and also checking out the hefty prices, we opted to eat a banana and granola bar in our room that we had brought.I would also like to point out to the hotel that the "Refresh Your Routine" hotel information book in the rooms states that there is complimentary coffee in the lobby served daily from 5:00-10:00 a.m. and 5:00-8:00p.m.  However, this is not the case. Not a deal breaker but something I thought I would point out. We stay in hotels often and it seems like nearly every one has a misprint and need to update the amenities list, etc. These misprints can range from complimentary coffee to as far as a pool or hot tub  (when there really is not one).  I asked my kids (6 and 7) when we left what I should say in this review.  They both agreed that the pool was AWESOME and my daughter though the pull out sofa sleeper was super cool and in her 6 year old words..."ultra comfortable". They also thought the front desk staff was very nice.  I would agree with their comments. I'd also like to say that check in and out was a breeze and Nick at the front desk was helpful and friendly.I would recommend this hotel to others. I would stay here again. If you are a AAA member, be sure to ask about discounts when booking. Safe travels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r155230847-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>155230847</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Good stay, good breakfast</t>
+  </si>
+  <si>
+    <t>Updated rooms are ok, bathroom a touch small though, the Bistro however adds a new touch, offering food and drinks (full bar) until 10pm and serving delicious and good choice of healthy (and not so healthy) breakfast albeit a bit pricey.  The staff is super friendly and helpful, WiFi works well throughout the hotel. Location is good and access to and from motorways is fast.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r155205529-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>155205529</t>
+  </si>
+  <si>
+    <t>03/20/2013</t>
+  </si>
+  <si>
+    <t>Great Hotel - Not So Good at the Bistro</t>
+  </si>
+  <si>
+    <t>This is a return visit for me at this hotel. This is also my first time after the remodel of the hotel. The hotel and it's staff, espcially Brandy at the Front Desk is top notch.  The Bistro on the other hand leaves a little to be desired. 
+First the really good news.  I was on a business trip of only one day and I only packed one dress shirt.  When I was getting dressed, the button my sleeve popped off and being a helpless male, I couldn't sew it on.  I asked the front desk for a safety pin so that I could secure my sleeve and the front desk clerk said he had a sewing kit.  Great, but I don't sew.  Brandy a very nice young woman working at the front desk sewed the button my sleeve.  What Service!! In the era of crappy customer service and lack of attention to details, Brandy is an exception.  I hope the hotel recognizes that she is a true asset to the front desk and reward her for same.  
+Second the bad news.  I ordered a breakfast sandwich, a coffee, and some water.  My bill came to some $ 10.23 (or so) and I handed the Bistro clerk a $ 20 bill and a $ 1 bill (as in I wanted $ 10 of change plus $ .77 (cents) rather than handing her a $ 20 and getting a bunch of...This is a return visit for me at this hotel. This is also my first time after the remodel of the hotel. The hotel and it's staff, espcially Brandy at the Front Desk is top notch.  The Bistro on the other hand leaves a little to be desired. First the really good news.  I was on a business trip of only one day and I only packed one dress shirt.  When I was getting dressed, the button my sleeve popped off and being a helpless male, I couldn't sew it on.  I asked the front desk for a safety pin so that I could secure my sleeve and the front desk clerk said he had a sewing kit.  Great, but I don't sew.  Brandy a very nice young woman working at the front desk sewed the button my sleeve.  What Service!! In the era of crappy customer service and lack of attention to details, Brandy is an exception.  I hope the hotel recognizes that she is a true asset to the front desk and reward her for same.  Second the bad news.  I ordered a breakfast sandwich, a coffee, and some water.  My bill came to some $ 10.23 (or so) and I handed the Bistro clerk a $ 20 bill and a $ 1 bill (as in I wanted $ 10 of change plus $ .77 (cents) rather than handing her a $ 20 and getting a bunch of ones and fives and change.  She immediatley assumed that my $ 1 bill was a tip.  After a few moments of discussion, my intentions were clear, but I don't think she ever understood what kind of change I wanted from a handing her a $ 20 bill and a $ 1 bill.  Plus, the food at the Bistro was simply not that good. I really don't like people who cannot give proper change and assume that since they have a nice smile and blond hair they automatically qualify for a tip.  I just don't like that assumption.  I have been a fan of this hotel in the past and I guess I would return, but I would find another place to eat other than the Bistro.  I am coming back to the area in April and I will probably opt for the Residence Inn across the parking lot.  Sad, because I do like the hotel personnel.  I think  the hotel personnel here are top notch.  If you stay here you will enjoy a nice room and nice sleep.  Just don't expect much from the Bistro.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a return visit for me at this hotel. This is also my first time after the remodel of the hotel. The hotel and it's staff, espcially Brandy at the Front Desk is top notch.  The Bistro on the other hand leaves a little to be desired. 
+First the really good news.  I was on a business trip of only one day and I only packed one dress shirt.  When I was getting dressed, the button my sleeve popped off and being a helpless male, I couldn't sew it on.  I asked the front desk for a safety pin so that I could secure my sleeve and the front desk clerk said he had a sewing kit.  Great, but I don't sew.  Brandy a very nice young woman working at the front desk sewed the button my sleeve.  What Service!! In the era of crappy customer service and lack of attention to details, Brandy is an exception.  I hope the hotel recognizes that she is a true asset to the front desk and reward her for same.  
+Second the bad news.  I ordered a breakfast sandwich, a coffee, and some water.  My bill came to some $ 10.23 (or so) and I handed the Bistro clerk a $ 20 bill and a $ 1 bill (as in I wanted $ 10 of change plus $ .77 (cents) rather than handing her a $ 20 and getting a bunch of...This is a return visit for me at this hotel. This is also my first time after the remodel of the hotel. The hotel and it's staff, espcially Brandy at the Front Desk is top notch.  The Bistro on the other hand leaves a little to be desired. First the really good news.  I was on a business trip of only one day and I only packed one dress shirt.  When I was getting dressed, the button my sleeve popped off and being a helpless male, I couldn't sew it on.  I asked the front desk for a safety pin so that I could secure my sleeve and the front desk clerk said he had a sewing kit.  Great, but I don't sew.  Brandy a very nice young woman working at the front desk sewed the button my sleeve.  What Service!! In the era of crappy customer service and lack of attention to details, Brandy is an exception.  I hope the hotel recognizes that she is a true asset to the front desk and reward her for same.  Second the bad news.  I ordered a breakfast sandwich, a coffee, and some water.  My bill came to some $ 10.23 (or so) and I handed the Bistro clerk a $ 20 bill and a $ 1 bill (as in I wanted $ 10 of change plus $ .77 (cents) rather than handing her a $ 20 and getting a bunch of ones and fives and change.  She immediatley assumed that my $ 1 bill was a tip.  After a few moments of discussion, my intentions were clear, but I don't think she ever understood what kind of change I wanted from a handing her a $ 20 bill and a $ 1 bill.  Plus, the food at the Bistro was simply not that good. I really don't like people who cannot give proper change and assume that since they have a nice smile and blond hair they automatically qualify for a tip.  I just don't like that assumption.  I have been a fan of this hotel in the past and I guess I would return, but I would find another place to eat other than the Bistro.  I am coming back to the area in April and I will probably opt for the Residence Inn across the parking lot.  Sad, because I do like the hotel personnel.  I think  the hotel personnel here are top notch.  If you stay here you will enjoy a nice room and nice sleep.  Just don't expect much from the Bistro.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r150217889-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>150217889</t>
+  </si>
+  <si>
+    <t>01/21/2013</t>
+  </si>
+  <si>
+    <t>Clean, Friendly, Safe</t>
+  </si>
+  <si>
+    <t>I had two rooms (one for my elderly father and one for my sister and me) at this newly renovated hotel for a family funeral in January.  My brother and his wife had a third room in our group.  The hotel is a long way from the airport, but it is fairly easy to get to and from the airport.  It was a sad occasion that we all gathered here, but the manager was very, very accommodating for our group.  Everyone we encountered at the front desk was extremely friendly and actually seemed to enjoy their job!  The rooms are still in the process of being updated - my brother had a microwave and refrigerator in his room, but we did not.  Not really an issue - but I just wonder why.  We spent one day at Brekenridge, which was extremely easy to get to from this hotel.  Lots of restaurants within an easy drive.  Would I stay here again?  Yes.  Comfy beds, good water pressure, plenty of hot water, and felt very safe while staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>DENLKGM, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded February 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2013</t>
+  </si>
+  <si>
+    <t>I had two rooms (one for my elderly father and one for my sister and me) at this newly renovated hotel for a family funeral in January.  My brother and his wife had a third room in our group.  The hotel is a long way from the airport, but it is fairly easy to get to and from the airport.  It was a sad occasion that we all gathered here, but the manager was very, very accommodating for our group.  Everyone we encountered at the front desk was extremely friendly and actually seemed to enjoy their job!  The rooms are still in the process of being updated - my brother had a microwave and refrigerator in his room, but we did not.  Not really an issue - but I just wonder why.  We spent one day at Brekenridge, which was extremely easy to get to from this hotel.  Lots of restaurants within an easy drive.  Would I stay here again?  Yes.  Comfy beds, good water pressure, plenty of hot water, and felt very safe while staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r150148558-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>150148558</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Great hotel for the money</t>
+  </si>
+  <si>
+    <t>Renovations appeared to be well done. Staff absolutely the best, couldn't be more accommodating and professional. Didnt notice road noise as stated in other reviews. Have never been unhappy with a Marriott property &amp; that is not something I can say about many other chain hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Renovations appeared to be well done. Staff absolutely the best, couldn't be more accommodating and professional. Didnt notice road noise as stated in other reviews. Have never been unhappy with a Marriott property &amp; that is not something I can say about many other chain hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r147898607-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>147898607</t>
+  </si>
+  <si>
+    <t>12/22/2012</t>
+  </si>
+  <si>
+    <t>Lovely Hotel</t>
+  </si>
+  <si>
+    <t>First I must say the front desk staff is amazing!  They greet you with such a great smile that it just makes your day. As a traveler for both work and pleasure this is one of my pet peeves and that is how I am greeted when I enter a hotel. So with that in mind, this one passed my expectations and it was a nice kick-start to my Thanksgiving holiday.  I also appreciated the feather pillows and extra towels. Coffee was always fresh which is another important part of my travels. A new bistro was being build while I was there and I look forward to checking it out in the future when I visit my family again because I will be a repeat customer. On that note, I can sincerely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>First I must say the front desk staff is amazing!  They greet you with such a great smile that it just makes your day. As a traveler for both work and pleasure this is one of my pet peeves and that is how I am greeted when I enter a hotel. So with that in mind, this one passed my expectations and it was a nice kick-start to my Thanksgiving holiday.  I also appreciated the feather pillows and extra towels. Coffee was always fresh which is another important part of my travels. A new bistro was being build while I was there and I look forward to checking it out in the future when I visit my family again because I will be a repeat customer. On that note, I can sincerely recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r144630337-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>144630337</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Very Clean/comfortable - Reasonable price - Great Service</t>
+  </si>
+  <si>
+    <t>By the time I write this review most of it may be irrelevant, but here goes. Some reviewers stated the hotel was in need of renovations. One reviewer said the hotel was "delapidated". One called it "rundown". Let me say it is NOT rundown nor is delapidated. The decor is not the most modern, but as I am writing this, renovations have begun on the hotel. With that said, this hotel is very nice.It is clean, comfortable, and the staff is GREAT! I will stay here again. I'm anxious to see the remodel. The other point I would make, is this. We chose this hotel because they have hot tubs available in some rooms. I was disappointed that we had a problem with our hot tub. It was very noisy and we could not use it. The staff was apologetic and offered to compensate me for the trouble. This was not necessary, but I found out that the hot tubs will be removed during the renovations. I was unhappy to hear that, but this is still a great place to stay nonethelss. The location is great. There is a lot to do in the Denver Southwest area. Getting to downtown can be a bit tricky during morning rush hour if you don't know your way around Denver. Actually it is tricky even if you do. The hotel sits right off of highway 285 Hampden) and Wadsworth. If you are familiar...By the time I write this review most of it may be irrelevant, but here goes. Some reviewers stated the hotel was in need of renovations. One reviewer said the hotel was "delapidated". One called it "rundown". Let me say it is NOT rundown nor is delapidated. The decor is not the most modern, but as I am writing this, renovations have begun on the hotel. With that said, this hotel is very nice.It is clean, comfortable, and the staff is GREAT! I will stay here again. I'm anxious to see the remodel. The other point I would make, is this. We chose this hotel because they have hot tubs available in some rooms. I was disappointed that we had a problem with our hot tub. It was very noisy and we could not use it. The staff was apologetic and offered to compensate me for the trouble. This was not necessary, but I found out that the hot tubs will be removed during the renovations. I was unhappy to hear that, but this is still a great place to stay nonethelss. The location is great. There is a lot to do in the Denver Southwest area. Getting to downtown can be a bit tricky during morning rush hour if you don't know your way around Denver. Actually it is tricky even if you do. The hotel sits right off of highway 285 Hampden) and Wadsworth. If you are familiar with Denver you know that the major highways are not always the best way to get from point A to point B. Many people comment about the breakfast not being complimentary. I would like to offer a slightly different viewpoint. We have stayed at another brand hotel right around the corner from this hotel that offers "free breakfast". You can read my review on that. This hotel offers  a good breakfast for a reasonable price IF YOU WANT IT. If you don't, you don't have to pay for it. Free breakfast is not free. You are paying for it in your room rate. This hotel does not charge you for breakfast if you don't want it. They offered me a special breakfast price if I purchased it at check in. For $5.00 per person, you can't beat it. The food is good, the service is good, and you don't have to get out if you don't want to. If you prefer to eat somewhere else, you can. I like it. Courtyards are geared more toward the business traveler but are comfortable for pleasure trips too. This hotel is a great choice for the Denver Southwest, Lakewood area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>By the time I write this review most of it may be irrelevant, but here goes. Some reviewers stated the hotel was in need of renovations. One reviewer said the hotel was "delapidated". One called it "rundown". Let me say it is NOT rundown nor is delapidated. The decor is not the most modern, but as I am writing this, renovations have begun on the hotel. With that said, this hotel is very nice.It is clean, comfortable, and the staff is GREAT! I will stay here again. I'm anxious to see the remodel. The other point I would make, is this. We chose this hotel because they have hot tubs available in some rooms. I was disappointed that we had a problem with our hot tub. It was very noisy and we could not use it. The staff was apologetic and offered to compensate me for the trouble. This was not necessary, but I found out that the hot tubs will be removed during the renovations. I was unhappy to hear that, but this is still a great place to stay nonethelss. The location is great. There is a lot to do in the Denver Southwest area. Getting to downtown can be a bit tricky during morning rush hour if you don't know your way around Denver. Actually it is tricky even if you do. The hotel sits right off of highway 285 Hampden) and Wadsworth. If you are familiar...By the time I write this review most of it may be irrelevant, but here goes. Some reviewers stated the hotel was in need of renovations. One reviewer said the hotel was "delapidated". One called it "rundown". Let me say it is NOT rundown nor is delapidated. The decor is not the most modern, but as I am writing this, renovations have begun on the hotel. With that said, this hotel is very nice.It is clean, comfortable, and the staff is GREAT! I will stay here again. I'm anxious to see the remodel. The other point I would make, is this. We chose this hotel because they have hot tubs available in some rooms. I was disappointed that we had a problem with our hot tub. It was very noisy and we could not use it. The staff was apologetic and offered to compensate me for the trouble. This was not necessary, but I found out that the hot tubs will be removed during the renovations. I was unhappy to hear that, but this is still a great place to stay nonethelss. The location is great. There is a lot to do in the Denver Southwest area. Getting to downtown can be a bit tricky during morning rush hour if you don't know your way around Denver. Actually it is tricky even if you do. The hotel sits right off of highway 285 Hampden) and Wadsworth. If you are familiar with Denver you know that the major highways are not always the best way to get from point A to point B. Many people comment about the breakfast not being complimentary. I would like to offer a slightly different viewpoint. We have stayed at another brand hotel right around the corner from this hotel that offers "free breakfast". You can read my review on that. This hotel offers  a good breakfast for a reasonable price IF YOU WANT IT. If you don't, you don't have to pay for it. Free breakfast is not free. You are paying for it in your room rate. This hotel does not charge you for breakfast if you don't want it. They offered me a special breakfast price if I purchased it at check in. For $5.00 per person, you can't beat it. The food is good, the service is good, and you don't have to get out if you don't want to. If you prefer to eat somewhere else, you can. I like it. Courtyards are geared more toward the business traveler but are comfortable for pleasure trips too. This hotel is a great choice for the Denver Southwest, Lakewood area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r144115686-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>144115686</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>A great experience in Lakewood, Co</t>
+  </si>
+  <si>
+    <t>We stayed six nights at Courtyard by Marriott in Lakewood, Co while attending a class reunion.  We thought it had the best service, most friendly and helpful staff of any hotel where we have stayed--and we have stayed at quite a few!  We got a great group rate also.  Also enjoyed the breakfasts and had excellent service.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>We stayed six nights at Courtyard by Marriott in Lakewood, Co while attending a class reunion.  We thought it had the best service, most friendly and helpful staff of any hotel where we have stayed--and we have stayed at quite a few!  We got a great group rate also.  Also enjoyed the breakfasts and had excellent service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r143875880-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>143875880</t>
+  </si>
+  <si>
+    <t>10/27/2012</t>
+  </si>
+  <si>
+    <t>Typical Couryard experience, nice job</t>
+  </si>
+  <si>
+    <t>Stayed here for one night while in town.  Good front desk service, clean rooms, everything you come to expect in the Courtyard experience.  Close to restaurants and access to Interstate.  Parking lot well lit and close to doors.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r140592841-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>140592841</t>
+  </si>
+  <si>
+    <t>09/18/2012</t>
+  </si>
+  <si>
+    <t>Just What We Needed</t>
+  </si>
+  <si>
+    <t>We booked this hotel on a name-your-price site.  We have stayed in the same area before because our son lives nearby.  The hotel was spotless.  The staff was super friendly.  The location is handy to all of the SW Denver Metro area.  We did not take advantage of the breakfast offered, but diners seemed to be enjoying their meals.  The hotel's amenities are excellent.  In short for the price it was unbeatable.  Would recommend it to anyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r138015361-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>138015361</t>
+  </si>
+  <si>
+    <t>08/22/2012</t>
+  </si>
+  <si>
+    <t>Perfect location for Red Rocks</t>
+  </si>
+  <si>
+    <t>My primary reason for visiting Denver was to see a concert at Red Rocks Amphitheater, so I chose this hotel based on its location.  It was very convenient to get to and from Red Rocks, but it's a good 40-50 minutes from the airport.  A car is definitely required if you choose to stay in this area.  The front desk staff was accommodating and friendly.  When I checked in, I was hungry after a long travel day.  The front desk agent was quick with nearby restaurant suggestions even providing a map.  With that said, there are many choices for eating around the hotel.  My room was clean and comfortable.  The air conditioning worked very well, and this was important as it was between 95 and 100 degrees during my visit.  There's free Internet access in the room which worked very well.  I didn't experience the breakfast buffett in the morning, but it's not a free breakfast.  I believe the cost is between $9-$12.  Another nice touch is there always seems to be fresh-brewed coffee for free in the lobby which is helpful for a self-professed caffeine addict.  The fitness center was small, as most are in this type of hotel, but it worked just fine with ellipticals and treadmills to use 24/7.  Bring a bathing suit because there's also an indoor pool and hot tub.  Nice after a long day hiking or biking.  Overall, my stay was excellent.  Also to...My primary reason for visiting Denver was to see a concert at Red Rocks Amphitheater, so I chose this hotel based on its location.  It was very convenient to get to and from Red Rocks, but it's a good 40-50 minutes from the airport.  A car is definitely required if you choose to stay in this area.  The front desk staff was accommodating and friendly.  When I checked in, I was hungry after a long travel day.  The front desk agent was quick with nearby restaurant suggestions even providing a map.  With that said, there are many choices for eating around the hotel.  My room was clean and comfortable.  The air conditioning worked very well, and this was important as it was between 95 and 100 degrees during my visit.  There's free Internet access in the room which worked very well.  I didn't experience the breakfast buffett in the morning, but it's not a free breakfast.  I believe the cost is between $9-$12.  Another nice touch is there always seems to be fresh-brewed coffee for free in the lobby which is helpful for a self-professed caffeine addict.  The fitness center was small, as most are in this type of hotel, but it worked just fine with ellipticals and treadmills to use 24/7.  Bring a bathing suit because there's also an indoor pool and hot tub.  Nice after a long day hiking or biking.  Overall, my stay was excellent.  Also to note, I booked this hotel through Priceline for a steal!  I saved over 60% off of the typical rates ($120-$140/night) which are very reasonable themselves (August 7-9).MoreShow less</t>
+  </si>
+  <si>
+    <t>My primary reason for visiting Denver was to see a concert at Red Rocks Amphitheater, so I chose this hotel based on its location.  It was very convenient to get to and from Red Rocks, but it's a good 40-50 minutes from the airport.  A car is definitely required if you choose to stay in this area.  The front desk staff was accommodating and friendly.  When I checked in, I was hungry after a long travel day.  The front desk agent was quick with nearby restaurant suggestions even providing a map.  With that said, there are many choices for eating around the hotel.  My room was clean and comfortable.  The air conditioning worked very well, and this was important as it was between 95 and 100 degrees during my visit.  There's free Internet access in the room which worked very well.  I didn't experience the breakfast buffett in the morning, but it's not a free breakfast.  I believe the cost is between $9-$12.  Another nice touch is there always seems to be fresh-brewed coffee for free in the lobby which is helpful for a self-professed caffeine addict.  The fitness center was small, as most are in this type of hotel, but it worked just fine with ellipticals and treadmills to use 24/7.  Bring a bathing suit because there's also an indoor pool and hot tub.  Nice after a long day hiking or biking.  Overall, my stay was excellent.  Also to...My primary reason for visiting Denver was to see a concert at Red Rocks Amphitheater, so I chose this hotel based on its location.  It was very convenient to get to and from Red Rocks, but it's a good 40-50 minutes from the airport.  A car is definitely required if you choose to stay in this area.  The front desk staff was accommodating and friendly.  When I checked in, I was hungry after a long travel day.  The front desk agent was quick with nearby restaurant suggestions even providing a map.  With that said, there are many choices for eating around the hotel.  My room was clean and comfortable.  The air conditioning worked very well, and this was important as it was between 95 and 100 degrees during my visit.  There's free Internet access in the room which worked very well.  I didn't experience the breakfast buffett in the morning, but it's not a free breakfast.  I believe the cost is between $9-$12.  Another nice touch is there always seems to be fresh-brewed coffee for free in the lobby which is helpful for a self-professed caffeine addict.  The fitness center was small, as most are in this type of hotel, but it worked just fine with ellipticals and treadmills to use 24/7.  Bring a bathing suit because there's also an indoor pool and hot tub.  Nice after a long day hiking or biking.  Overall, my stay was excellent.  Also to note, I booked this hotel through Priceline for a steal!  I saved over 60% off of the typical rates ($120-$140/night) which are very reasonable themselves (August 7-9).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r135084748-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>135084748</t>
+  </si>
+  <si>
+    <t>07/22/2012</t>
+  </si>
+  <si>
+    <t>Great hotel, friendly staff</t>
+  </si>
+  <si>
+    <t>This was our hotel during our first stay in Denver.  The front desk staff was amazing-very friendly and were quick to fix a mix up in our reservations.  The room I had was very spacious and included a king sized bed which was suprisingly comfortable.  Also included were a desk area and fold out small sized sofa.  The decor was a little dated but the room was clean and comfortable.  There was a coffeemaker as well in the bathroom.  This hotel also included a free breakfast that was adequate.  It wasn't as good as some other breakfasts at other hotels but it was OK.  They had some hot foods, eggs, make your own waffles, bacon or sausage and some cold cereals and fruit.  There is an all day coffee/tea/hot water station which was frequented by me and much appreciated.  In the afternoon they have fresh baked cookies which disappear quickly.  They have a miniscule "store" near the front desk with some microwaveable items (there is a microwave down the hall for all guests to use), ice cream novelties and of course some sundry items that are usually forgotten.  Again, the front desk staff made this a great experience and should I find myself in the Denver area again, I will try to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>This was our hotel during our first stay in Denver.  The front desk staff was amazing-very friendly and were quick to fix a mix up in our reservations.  The room I had was very spacious and included a king sized bed which was suprisingly comfortable.  Also included were a desk area and fold out small sized sofa.  The decor was a little dated but the room was clean and comfortable.  There was a coffeemaker as well in the bathroom.  This hotel also included a free breakfast that was adequate.  It wasn't as good as some other breakfasts at other hotels but it was OK.  They had some hot foods, eggs, make your own waffles, bacon or sausage and some cold cereals and fruit.  There is an all day coffee/tea/hot water station which was frequented by me and much appreciated.  In the afternoon they have fresh baked cookies which disappear quickly.  They have a miniscule "store" near the front desk with some microwaveable items (there is a microwave down the hall for all guests to use), ice cream novelties and of course some sundry items that are usually forgotten.  Again, the front desk staff made this a great experience and should I find myself in the Denver area again, I will try to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r132412771-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>132412771</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>Outstanding</t>
+  </si>
+  <si>
+    <t>There was an atmosphere of careful attention to cleanliness, details and friendly competence. The suite was very pleasant and comfortable in both design and function. Temperature was always optimum in the sleeping room and meeting room.  My mother has severe rheumatoid arthritis and the bed was perfect for her. The service was amazing.  Very impressed with the immediate response, knowledge and warmth to any request or question from the staff.  We held a party of 30 people in the meeting room and it was very successful.  It was a very pleasantexperience for all of our family.  We all commented on our high satisfaction with the Courtyard in Lakewood.  Can't comment about the spa because we didn't use it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2012</t>
+  </si>
+  <si>
+    <t>There was an atmosphere of careful attention to cleanliness, details and friendly competence. The suite was very pleasant and comfortable in both design and function. Temperature was always optimum in the sleeping room and meeting room.  My mother has severe rheumatoid arthritis and the bed was perfect for her. The service was amazing.  Very impressed with the immediate response, knowledge and warmth to any request or question from the staff.  We held a party of 30 people in the meeting room and it was very successful.  It was a very pleasantexperience for all of our family.  We all commented on our high satisfaction with the Courtyard in Lakewood.  Can't comment about the spa because we didn't use it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r130518375-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>130518375</t>
+  </si>
+  <si>
+    <t>05/24/2012</t>
+  </si>
+  <si>
+    <t>Please rooms, pleasant staff and management</t>
+  </si>
+  <si>
+    <t>First of all, let me say that I am not Marriott fan ( or atleast in the past was not a fan, but hotels like this are rapdily changing my opinion) and this Courtyard by Marriott is one of the nicest hotels around.  Yes, you don't have all the amenities that a 5 Star hotel has,  but the staff and the general manager make up for any differences.  Very pleasant people, very consistent. The hotel has a breakfast there in the lobby which has everything you could want.  The room was clean and spacious, again, everything I was looking for.  I see the inside of hotel rooms each week and one looks about the same as another to me.  The differences are the little things that the staff does.  This hotel is on my list of places to come back to.  I am in the Lakewood area frequently for business and I have found my new hotel each visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>DENLKGM, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded June 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2012</t>
+  </si>
+  <si>
+    <t>First of all, let me say that I am not Marriott fan ( or atleast in the past was not a fan, but hotels like this are rapdily changing my opinion) and this Courtyard by Marriott is one of the nicest hotels around.  Yes, you don't have all the amenities that a 5 Star hotel has,  but the staff and the general manager make up for any differences.  Very pleasant people, very consistent. The hotel has a breakfast there in the lobby which has everything you could want.  The room was clean and spacious, again, everything I was looking for.  I see the inside of hotel rooms each week and one looks about the same as another to me.  The differences are the little things that the staff does.  This hotel is on my list of places to come back to.  I am in the Lakewood area frequently for business and I have found my new hotel each visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r128202235-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>128202235</t>
+  </si>
+  <si>
+    <t>04/19/2012</t>
+  </si>
+  <si>
+    <t>Courtyard Denver SW</t>
+  </si>
+  <si>
+    <t>Rooms need updating, but the room I had was large and also included a mini fridge.  This, like most Courtyards, does not offer an included breakfast.  Stayed for business, and would stay again, if it was close to my work.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>Rooms need updating, but the room I had was large and also included a mini fridge.  This, like most Courtyards, does not offer an included breakfast.  Stayed for business, and would stay again, if it was close to my work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r124152962-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>124152962</t>
+  </si>
+  <si>
+    <t>02/05/2012</t>
+  </si>
+  <si>
+    <t>Poor Last Minute Decision</t>
+  </si>
+  <si>
+    <t>First let me say the staff does their absolute best to try to make up for the dilapidated hotel.  We checked in late at night during a snow storm and the front desk attendant was very helpful.  When we opened the door to our room we found an outdated, bare minimum room.  The king bed was placed oddly in the room and the television was located at a 45 degree angle from the headboard, making it difficult for the person on the far side of the bed to see it.  
+Another update needed is the ac/heater.  Old school window type that is not set on a thermostat so the loud fan is constantly running unless you want to freeze to death ... needless to say I got no sleep.  This place is in desperate need of updates that should include new carpeting, beds, bedding, furniture and bathroom ... okay I guess maybe it would be cheaper to change the sign outside to a Motel 6 or 8.
+The night we arrived Mike had told us the hours of breakfast, a continental or hot breakfast is always a nice perk ... or so we thought.  After eating breakfast an attendant arrived with a bill, I'm sorry but had we known that we would have gone elsewhere and eaten a better breakfast for the same or better price.  
+Weekday rates are the same as what we could have stayed at a 4...First let me say the staff does their absolute best to try to make up for the dilapidated hotel.  We checked in late at night during a snow storm and the front desk attendant was very helpful.  When we opened the door to our room we found an outdated, bare minimum room.  The king bed was placed oddly in the room and the television was located at a 45 degree angle from the headboard, making it difficult for the person on the far side of the bed to see it.  Another update needed is the ac/heater.  Old school window type that is not set on a thermostat so the loud fan is constantly running unless you want to freeze to death ... needless to say I got no sleep.  This place is in desperate need of updates that should include new carpeting, beds, bedding, furniture and bathroom ... okay I guess maybe it would be cheaper to change the sign outside to a Motel 6 or 8.The night we arrived Mike had told us the hours of breakfast, a continental or hot breakfast is always a nice perk ... or so we thought.  After eating breakfast an attendant arrived with a bill, I'm sorry but had we known that we would have gone elsewhere and eaten a better breakfast for the same or better price.  Weekday rates are the same as what we could have stayed at a 4 star downtown for ... DO NOT STAY HERE!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>DENLKGM, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded June 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2012</t>
+  </si>
+  <si>
+    <t>First let me say the staff does their absolute best to try to make up for the dilapidated hotel.  We checked in late at night during a snow storm and the front desk attendant was very helpful.  When we opened the door to our room we found an outdated, bare minimum room.  The king bed was placed oddly in the room and the television was located at a 45 degree angle from the headboard, making it difficult for the person on the far side of the bed to see it.  
+Another update needed is the ac/heater.  Old school window type that is not set on a thermostat so the loud fan is constantly running unless you want to freeze to death ... needless to say I got no sleep.  This place is in desperate need of updates that should include new carpeting, beds, bedding, furniture and bathroom ... okay I guess maybe it would be cheaper to change the sign outside to a Motel 6 or 8.
+The night we arrived Mike had told us the hours of breakfast, a continental or hot breakfast is always a nice perk ... or so we thought.  After eating breakfast an attendant arrived with a bill, I'm sorry but had we known that we would have gone elsewhere and eaten a better breakfast for the same or better price.  
+Weekday rates are the same as what we could have stayed at a 4...First let me say the staff does their absolute best to try to make up for the dilapidated hotel.  We checked in late at night during a snow storm and the front desk attendant was very helpful.  When we opened the door to our room we found an outdated, bare minimum room.  The king bed was placed oddly in the room and the television was located at a 45 degree angle from the headboard, making it difficult for the person on the far side of the bed to see it.  Another update needed is the ac/heater.  Old school window type that is not set on a thermostat so the loud fan is constantly running unless you want to freeze to death ... needless to say I got no sleep.  This place is in desperate need of updates that should include new carpeting, beds, bedding, furniture and bathroom ... okay I guess maybe it would be cheaper to change the sign outside to a Motel 6 or 8.The night we arrived Mike had told us the hours of breakfast, a continental or hot breakfast is always a nice perk ... or so we thought.  After eating breakfast an attendant arrived with a bill, I'm sorry but had we known that we would have gone elsewhere and eaten a better breakfast for the same or better price.  Weekday rates are the same as what we could have stayed at a 4 star downtown for ... DO NOT STAY HERE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r124013349-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>124013349</t>
+  </si>
+  <si>
+    <t>02/02/2012</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable overnight stay.</t>
+  </si>
+  <si>
+    <t>Upon our arrival we were welcomed by the front desk clerk who sincerly made us feel at home. He offered to print off our boarding passes for our flight the next day and offered several choices for dinner that night. The room was very nicely appointed however the one negative were the size of the beds. If these were upgraded I would have given it an excellent rating.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>Upon our arrival we were welcomed by the front desk clerk who sincerly made us feel at home. He offered to print off our boarding passes for our flight the next day and offered several choices for dinner that night. The room was very nicely appointed however the one negative were the size of the beds. If these were upgraded I would have given it an excellent rating.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r122261473-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>122261473</t>
+  </si>
+  <si>
+    <t>12/29/2011</t>
+  </si>
+  <si>
+    <t>Love the Spa Room!</t>
+  </si>
+  <si>
+    <t>We really enjoyed having the big tub in the main room, which may seem oddly placed, but we really liked it. :) It was clean, and good value for the money, located well, and the staff was friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>We really enjoyed having the big tub in the main room, which may seem oddly placed, but we really liked it. :) It was clean, and good value for the money, located well, and the staff was friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r119196326-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>119196326</t>
+  </si>
+  <si>
+    <t>10/11/2011</t>
+  </si>
+  <si>
+    <t>Great Friendly Service</t>
+  </si>
+  <si>
+    <t>We stayed her for 5 nights in September.  We actually got this hotel from Priceline.  I was a little bit leary since I have never booked thru them before.  As soon as we walked into the hotel lobby all that changed.  We were greeted by 2 of the hotel associates at the desk and they were very social and accomadating.  The hotel rooms were spotless and the location was great for what we had planned.  We will defintely choose this location again when we are back in town.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>DENLKGM, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded November 7, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 7, 2011</t>
+  </si>
+  <si>
+    <t>We stayed her for 5 nights in September.  We actually got this hotel from Priceline.  I was a little bit leary since I have never booked thru them before.  As soon as we walked into the hotel lobby all that changed.  We were greeted by 2 of the hotel associates at the desk and they were very social and accomadating.  The hotel rooms were spotless and the location was great for what we had planned.  We will defintely choose this location again when we are back in town.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r118281702-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>118281702</t>
+  </si>
+  <si>
+    <t>09/18/2011</t>
+  </si>
+  <si>
+    <t>M.P. Hatfield</t>
+  </si>
+  <si>
+    <t>I am a frequent guest at this particular Marriott and recommend it to all of my colleagues.  I am greeted personally by the entire staff.  Folks know my name and which room I want.  I enjoy the pool and exercise facilities.  I enjoy being greeted by name when I come down to breakfast.  When the staff eliminated V-8 Juice, I asked them to bring it back-and they did.  (Still would like cottage cheese brought back at breakfast).  Recently, there was an unfortunate security issue in the general area of the hotel and the staff did everything to reassure my own personal safety.  Appreciate the cleanliness of the public areas as well as my room.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a frequent guest at this particular Marriott and recommend it to all of my colleagues.  I am greeted personally by the entire staff.  Folks know my name and which room I want.  I enjoy the pool and exercise facilities.  I enjoy being greeted by name when I come down to breakfast.  When the staff eliminated V-8 Juice, I asked them to bring it back-and they did.  (Still would like cottage cheese brought back at breakfast).  Recently, there was an unfortunate security issue in the general area of the hotel and the staff did everything to reassure my own personal safety.  Appreciate the cleanliness of the public areas as well as my room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r117904929-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>117904929</t>
+  </si>
+  <si>
+    <t>09/10/2011</t>
+  </si>
+  <si>
+    <t>Wedding stay success</t>
+  </si>
+  <si>
+    <t>We booked several rooms for our son's Denver wedding.  The gracious and efficient staff were able to meet all our needs from families with small children to a special needs room with walk in shower for my elderly father.  When the coin operated clothes dryer for guests did not work, Chris who was working the night shift, put the wet clothes in the hotel laundry dryer.  When we needed extra towels and linens, the staff accomodated us immediately.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked several rooms for our son's Denver wedding.  The gracious and efficient staff were able to meet all our needs from families with small children to a special needs room with walk in shower for my elderly father.  When the coin operated clothes dryer for guests did not work, Chris who was working the night shift, put the wet clothes in the hotel laundry dryer.  When we needed extra towels and linens, the staff accomodated us immediately.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r115482596-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>115482596</t>
+  </si>
+  <si>
+    <t>07/18/2011</t>
+  </si>
+  <si>
+    <t>Great hotel and great staff</t>
+  </si>
+  <si>
+    <t>The hotel was outstanding. We in the area for business all week and couldn't have been happier about my stay. The rooms were clean and nice. The staff was friendly and very helpful. The breakfast was good. Overall I was very happy with my stay and I will be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>DENLKGM, Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded August 14, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2011</t>
+  </si>
+  <si>
+    <t>The hotel was outstanding. We in the area for business all week and couldn't have been happier about my stay. The rooms were clean and nice. The staff was friendly and very helpful. The breakfast was good. Overall I was very happy with my stay and I will be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r114778222-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>114778222</t>
+  </si>
+  <si>
+    <t>06/26/2011</t>
+  </si>
+  <si>
+    <t>Best Manager Ever!</t>
+  </si>
+  <si>
+    <t>Immediately following my stay at this hotel, I received an e-mail from Jessica Slater, General Manager, asking how my stay at the Courtyard had gone.  I responded that it was very nice and that I appreciated the upgrade they made to my room!  She asked me if I planned to return in the future and made my reservations for me personally - Now that is SERVICE!   It made me feel very special - GREAT JOB JESSICA!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>DENLKGM, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded June 29, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2011</t>
+  </si>
+  <si>
+    <t>Immediately following my stay at this hotel, I received an e-mail from Jessica Slater, General Manager, asking how my stay at the Courtyard had gone.  I responded that it was very nice and that I appreciated the upgrade they made to my room!  She asked me if I planned to return in the future and made my reservations for me personally - Now that is SERVICE!   It made me feel very special - GREAT JOB JESSICA!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r112452453-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>112452453</t>
+  </si>
+  <si>
+    <t>06/09/2011</t>
+  </si>
+  <si>
+    <t>Wonderful Service...and we didn't even stay there!</t>
+  </si>
+  <si>
+    <t>The hotel manager showed unbelievable care for us personally as we were celebrating our 10 year wedding anniversary.  The Courtyard we had booked there in Lakewood ended up being further from downtown Denver then we had wanted.  The hotel manager (Jessica) helped find us a room much closer to downtown at an incredible rate.  Our anniversary was saved!!MoreShow less</t>
+  </si>
+  <si>
+    <t>DENLKGM, General Manager at Courtyard Denver Southwest/Lakewood, responded to this reviewResponded June 10, 2011</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2011</t>
+  </si>
+  <si>
+    <t>The hotel manager showed unbelievable care for us personally as we were celebrating our 10 year wedding anniversary.  The Courtyard we had booked there in Lakewood ended up being further from downtown Denver then we had wanted.  The hotel manager (Jessica) helped find us a room much closer to downtown at an incredible rate.  Our anniversary was saved!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r39102114-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>39102114</t>
+  </si>
+  <si>
+    <t>08/28/2009</t>
+  </si>
+  <si>
+    <t>Courtyard Marriott Lakewood was very nice, just a little dated...</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed for 2 nights while attending a Red Rocks amphitheater concert.  The young lady who checked us in at around 6pm Tuesday night was so kind and helpful.  Our rooms were nice and clean.  The only thing I didn't like was the age of the building and facilities.  The staff kept everything sparkling clean so I really don't have any complaints save one.  The bathroom door dragged so bad that you couldn't close it fully which wasn't an issue.  If I had been with someone I wasn't familiar with I might would have complained to the front desk.  They have all the usual, swimming pool, spa, workout room, wireless internet, coffee, hair dryer, and comfortable beds.  For some reason I didn't check ahead if the room rate included breakfast.  It didn't and I wish it had.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>My girlfriend and I stayed for 2 nights while attending a Red Rocks amphitheater concert.  The young lady who checked us in at around 6pm Tuesday night was so kind and helpful.  Our rooms were nice and clean.  The only thing I didn't like was the age of the building and facilities.  The staff kept everything sparkling clean so I really don't have any complaints save one.  The bathroom door dragged so bad that you couldn't close it fully which wasn't an issue.  If I had been with someone I wasn't familiar with I might would have complained to the front desk.  They have all the usual, swimming pool, spa, workout room, wireless internet, coffee, hair dryer, and comfortable beds.  For some reason I didn't check ahead if the room rate included breakfast.  It didn't and I wish it had.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r32612033-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>32612033</t>
+  </si>
+  <si>
+    <t>06/18/2009</t>
+  </si>
+  <si>
+    <t>For the Business Traveler, but a Great Value for my Family</t>
+  </si>
+  <si>
+    <t>Although this hotel obviously caters to the business traveler, General Manager Christopher Dougherty and his staff made my family feel more than welcome at this clean, well-kept hotel South of Denver. Our room was neat and offered two comfortable double-beds, a desk (with Wi-Fi) and ergonomic chair, a Gideon Bible, a lounge chair and foot stool, and a coffee maker with all the amenities for the grownups. While most guest undoubtedly used the high-speed Internet access (both in the lobby and in the rooms) to check business e-mails and find meeting locations, our family could download and print out directions to the Denver Zoo. While my wife and two kids didn't utilize the workout center, we all spent a great deal of time in the pool next door. The hotel personnel were extremely friendly and helpful - customer service was at a premium here. Many recommendations were available for places to eat nearby the hotel, but breakfast right there was outstanding – a wonderful selection of food in the buffet and made-to-order eggs and omelets. We had a wonderful time at the Courtyard by Marriott Denver Southwest/Lakewood.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>Although this hotel obviously caters to the business traveler, General Manager Christopher Dougherty and his staff made my family feel more than welcome at this clean, well-kept hotel South of Denver. Our room was neat and offered two comfortable double-beds, a desk (with Wi-Fi) and ergonomic chair, a Gideon Bible, a lounge chair and foot stool, and a coffee maker with all the amenities for the grownups. While most guest undoubtedly used the high-speed Internet access (both in the lobby and in the rooms) to check business e-mails and find meeting locations, our family could download and print out directions to the Denver Zoo. While my wife and two kids didn't utilize the workout center, we all spent a great deal of time in the pool next door. The hotel personnel were extremely friendly and helpful - customer service was at a premium here. Many recommendations were available for places to eat nearby the hotel, but breakfast right there was outstanding – a wonderful selection of food in the buffet and made-to-order eggs and omelets. We had a wonderful time at the Courtyard by Marriott Denver Southwest/Lakewood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r16340657-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>16340657</t>
+  </si>
+  <si>
+    <t>05/23/2008</t>
+  </si>
+  <si>
+    <t>Marriot in Lakewood, CO</t>
+  </si>
+  <si>
+    <t>The hotel and rooms were clean and the employees were friendly for the most part.  The free buffet breakfast was the best.The rooms seemed a little older.  The sliding glass door didn't work and when I finally got it open, I couldn't get it to close &amp; lock.  The hotel is beside I70 so you constantly hear the traffic.There weren't very many restaurants close by within walking distance.</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r4984774-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>4984774</t>
+  </si>
+  <si>
+    <t>04/17/2006</t>
+  </si>
+  <si>
+    <t>good value in Lakewood</t>
+  </si>
+  <si>
+    <t>Quiet, clean hotel in Lakewood.  Good location; close to several nice restaurants.  Breakfast buffet was a decent value, not tremendously overpriced like many hotels in this class.  Clean rooms, very good beds, good service.  Free wireless internet.  I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r1881255-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>1881255</t>
+  </si>
+  <si>
+    <t>05/06/2004</t>
+  </si>
+  <si>
+    <t>This hotel is worth it!</t>
+  </si>
+  <si>
+    <t>Upon arriving at this hotel, the staff was very accomodating and always friendly and smiling. The rate was well worth the service! The rooms are immaculate, and compared with the other hotels in Lakewood, there were plenty of amenities for my party. They offer free high speed (ethernet) AND wireless access in the hotel: who does that these days? For breakfast, you get everything and more for only $9 - theoretically I could fill up a gallon container with their Dutch coffee and Sunkist OJ AND eat a full, hot breakfast.. for only $9! At the Denny's up the road we had half as much and had to pay the server a tip for absolutely no service! If you're going to Lakewood or Southwest Denver, visit the Courtyard. The most for your money... and the service (as you can tell from the last review) is amazing. Now, I don't know what constititus such an awful stay, but I'd be grateful if the hotel gave me a free night and $60 worth of breakfast for just being cold!One final note: the staff of this hotel is very confident and knowledgeable about their directions. They can get you almost anywhere - without using Mapquest! Now that's what I call competent!MoreShow less</t>
+  </si>
+  <si>
+    <t>Upon arriving at this hotel, the staff was very accomodating and always friendly and smiling. The rate was well worth the service! The rooms are immaculate, and compared with the other hotels in Lakewood, there were plenty of amenities for my party. They offer free high speed (ethernet) AND wireless access in the hotel: who does that these days? For breakfast, you get everything and more for only $9 - theoretically I could fill up a gallon container with their Dutch coffee and Sunkist OJ AND eat a full, hot breakfast.. for only $9! At the Denny's up the road we had half as much and had to pay the server a tip for absolutely no service! If you're going to Lakewood or Southwest Denver, visit the Courtyard. The most for your money... and the service (as you can tell from the last review) is amazing. Now, I don't know what constititus such an awful stay, but I'd be grateful if the hotel gave me a free night and $60 worth of breakfast for just being cold!One final note: the staff of this hotel is very confident and knowledgeable about their directions. They can get you almost anywhere - without using Mapquest! Now that's what I call competent!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33514-d119996-r1621417-Courtyard_Denver_Southwest_Lakewood-Lakewood_Colorado.html</t>
+  </si>
+  <si>
+    <t>1621417</t>
+  </si>
+  <si>
+    <t>01/29/2004</t>
+  </si>
+  <si>
+    <t>Frostbite</t>
+  </si>
+  <si>
+    <t>We stayed here for one night over New Year's on our way to skiing in Steamboat. We arrived about 10pm on a very cold night to find that although our room was quite large there was NO HEAT on in it. It was freezing and took over 3 hours to heat up. It was a nightmare and since it was a suite and there were 5 of us, they didn't have another room to accomodate us. They were very nice and gave us free breakfast and a voucher for another stay, but it was one of the worst hotel stays I've ever had.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2606,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2638,5895 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>74</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L10" t="s">
+        <v>113</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>114</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>135</v>
+      </c>
+      <c r="X13" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>149</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>74</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>155</v>
+      </c>
+      <c r="X16" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>159</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>161</v>
+      </c>
+      <c r="L17" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>163</v>
+      </c>
+      <c r="O17" t="s">
+        <v>164</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>165</v>
+      </c>
+      <c r="X17" t="s">
+        <v>166</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>168</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>169</v>
+      </c>
+      <c r="J18" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" t="s">
+        <v>172</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>173</v>
+      </c>
+      <c r="O18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>174</v>
+      </c>
+      <c r="X18" t="s">
+        <v>175</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>182</v>
+      </c>
+      <c r="X19" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" t="s">
+        <v>187</v>
+      </c>
+      <c r="K20" t="s">
+        <v>188</v>
+      </c>
+      <c r="L20" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>191</v>
+      </c>
+      <c r="X20" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J21" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" t="s">
+        <v>198</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>199</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>200</v>
+      </c>
+      <c r="X21" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>204</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>206</v>
+      </c>
+      <c r="L22" t="s">
+        <v>207</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>74</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>208</v>
+      </c>
+      <c r="X22" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>216</v>
+      </c>
+      <c r="O23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>218</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>219</v>
+      </c>
+      <c r="J24" t="s">
+        <v>220</v>
+      </c>
+      <c r="K24" t="s">
+        <v>221</v>
+      </c>
+      <c r="L24" t="s">
+        <v>222</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>216</v>
+      </c>
+      <c r="O24" t="s">
+        <v>164</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>223</v>
+      </c>
+      <c r="X24" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>227</v>
+      </c>
+      <c r="J25" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" t="s">
+        <v>229</v>
+      </c>
+      <c r="L25" t="s">
+        <v>230</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" t="s">
+        <v>74</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>232</v>
+      </c>
+      <c r="X25" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>235</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>236</v>
+      </c>
+      <c r="J26" t="s">
+        <v>237</v>
+      </c>
+      <c r="K26" t="s">
+        <v>238</v>
+      </c>
+      <c r="L26" t="s">
+        <v>239</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>231</v>
+      </c>
+      <c r="O26" t="s">
+        <v>74</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>240</v>
+      </c>
+      <c r="X26" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>243</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>244</v>
+      </c>
+      <c r="J27" t="s">
+        <v>245</v>
+      </c>
+      <c r="K27" t="s">
+        <v>246</v>
+      </c>
+      <c r="L27" t="s">
+        <v>247</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>248</v>
+      </c>
+      <c r="O27" t="s">
+        <v>91</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>249</v>
+      </c>
+      <c r="X27" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" t="s">
+        <v>255</v>
+      </c>
+      <c r="L28" t="s">
+        <v>256</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>231</v>
+      </c>
+      <c r="O28" t="s">
+        <v>74</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>257</v>
+      </c>
+      <c r="X28" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>260</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>261</v>
+      </c>
+      <c r="J29" t="s">
+        <v>262</v>
+      </c>
+      <c r="K29" t="s">
+        <v>263</v>
+      </c>
+      <c r="L29" t="s">
+        <v>264</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>248</v>
+      </c>
+      <c r="O29" t="s">
+        <v>74</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>265</v>
+      </c>
+      <c r="X29" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>269</v>
+      </c>
+      <c r="J30" t="s">
+        <v>270</v>
+      </c>
+      <c r="K30" t="s">
+        <v>271</v>
+      </c>
+      <c r="L30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>273</v>
+      </c>
+      <c r="O30" t="s">
+        <v>74</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>274</v>
+      </c>
+      <c r="X30" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s">
+        <v>281</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>273</v>
+      </c>
+      <c r="O31" t="s">
+        <v>91</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>282</v>
+      </c>
+      <c r="X31" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" t="s">
+        <v>287</v>
+      </c>
+      <c r="K32" t="s">
+        <v>288</v>
+      </c>
+      <c r="L32" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>290</v>
+      </c>
+      <c r="O32" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>291</v>
+      </c>
+      <c r="X32" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>294</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>295</v>
+      </c>
+      <c r="J33" t="s">
+        <v>296</v>
+      </c>
+      <c r="K33" t="s">
+        <v>297</v>
+      </c>
+      <c r="L33" t="s">
+        <v>298</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>290</v>
+      </c>
+      <c r="O33" t="s">
+        <v>74</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>299</v>
+      </c>
+      <c r="X33" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>302</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>303</v>
+      </c>
+      <c r="J34" t="s">
+        <v>304</v>
+      </c>
+      <c r="K34" t="s">
+        <v>305</v>
+      </c>
+      <c r="L34" t="s">
+        <v>306</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>307</v>
+      </c>
+      <c r="O34" t="s">
+        <v>91</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>308</v>
+      </c>
+      <c r="X34" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>311</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>312</v>
+      </c>
+      <c r="J35" t="s">
+        <v>313</v>
+      </c>
+      <c r="K35" t="s">
+        <v>314</v>
+      </c>
+      <c r="L35" t="s">
+        <v>315</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>316</v>
+      </c>
+      <c r="O35" t="s">
+        <v>74</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>317</v>
+      </c>
+      <c r="X35" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>320</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>321</v>
+      </c>
+      <c r="J36" t="s">
+        <v>322</v>
+      </c>
+      <c r="K36" t="s">
+        <v>323</v>
+      </c>
+      <c r="L36" t="s">
+        <v>324</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>316</v>
+      </c>
+      <c r="O36" t="s">
+        <v>91</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>317</v>
+      </c>
+      <c r="X36" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>326</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>327</v>
+      </c>
+      <c r="J37" t="s">
+        <v>328</v>
+      </c>
+      <c r="K37" t="s">
+        <v>329</v>
+      </c>
+      <c r="L37" t="s">
+        <v>330</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>317</v>
+      </c>
+      <c r="X37" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>332</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>333</v>
+      </c>
+      <c r="J38" t="s">
+        <v>334</v>
+      </c>
+      <c r="K38" t="s">
+        <v>335</v>
+      </c>
+      <c r="L38" t="s">
+        <v>336</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>337</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>338</v>
+      </c>
+      <c r="X38" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>341</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>342</v>
+      </c>
+      <c r="J39" t="s">
+        <v>343</v>
+      </c>
+      <c r="K39" t="s">
+        <v>344</v>
+      </c>
+      <c r="L39" t="s">
+        <v>345</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>346</v>
+      </c>
+      <c r="O39" t="s">
+        <v>74</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>347</v>
+      </c>
+      <c r="X39" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>350</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>351</v>
+      </c>
+      <c r="J40" t="s">
+        <v>352</v>
+      </c>
+      <c r="K40" t="s">
+        <v>353</v>
+      </c>
+      <c r="L40" t="s">
+        <v>354</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>346</v>
+      </c>
+      <c r="O40" t="s">
+        <v>355</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>356</v>
+      </c>
+      <c r="X40" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>359</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>360</v>
+      </c>
+      <c r="J41" t="s">
+        <v>361</v>
+      </c>
+      <c r="K41" t="s">
+        <v>362</v>
+      </c>
+      <c r="L41" t="s">
+        <v>363</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>364</v>
+      </c>
+      <c r="X41" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>367</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>368</v>
+      </c>
+      <c r="J42" t="s">
+        <v>369</v>
+      </c>
+      <c r="K42" t="s">
+        <v>370</v>
+      </c>
+      <c r="L42" t="s">
+        <v>371</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>372</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>373</v>
+      </c>
+      <c r="X42" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>376</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>377</v>
+      </c>
+      <c r="J43" t="s">
+        <v>378</v>
+      </c>
+      <c r="K43" t="s">
+        <v>379</v>
+      </c>
+      <c r="L43" t="s">
+        <v>380</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>372</v>
+      </c>
+      <c r="O43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>373</v>
+      </c>
+      <c r="X43" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>382</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>383</v>
+      </c>
+      <c r="J44" t="s">
+        <v>384</v>
+      </c>
+      <c r="K44" t="s">
+        <v>385</v>
+      </c>
+      <c r="L44" t="s">
+        <v>386</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>387</v>
+      </c>
+      <c r="O44" t="s">
+        <v>91</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>373</v>
+      </c>
+      <c r="X44" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>389</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>390</v>
+      </c>
+      <c r="J45" t="s">
+        <v>391</v>
+      </c>
+      <c r="K45" t="s">
+        <v>392</v>
+      </c>
+      <c r="L45" t="s">
+        <v>393</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>394</v>
+      </c>
+      <c r="O45" t="s">
+        <v>164</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>373</v>
+      </c>
+      <c r="X45" t="s">
+        <v>374</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>396</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>397</v>
+      </c>
+      <c r="J46" t="s">
+        <v>398</v>
+      </c>
+      <c r="K46" t="s">
+        <v>399</v>
+      </c>
+      <c r="L46" t="s">
+        <v>400</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>401</v>
+      </c>
+      <c r="O46" t="s">
+        <v>91</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>402</v>
+      </c>
+      <c r="X46" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>405</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>406</v>
+      </c>
+      <c r="J47" t="s">
+        <v>407</v>
+      </c>
+      <c r="K47" t="s">
+        <v>408</v>
+      </c>
+      <c r="L47" t="s">
+        <v>409</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>410</v>
+      </c>
+      <c r="O47" t="s">
+        <v>74</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>411</v>
+      </c>
+      <c r="X47" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>414</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>415</v>
+      </c>
+      <c r="J48" t="s">
+        <v>416</v>
+      </c>
+      <c r="K48" t="s">
+        <v>417</v>
+      </c>
+      <c r="L48" t="s">
+        <v>418</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>419</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>420</v>
+      </c>
+      <c r="J49" t="s">
+        <v>421</v>
+      </c>
+      <c r="K49" t="s">
+        <v>422</v>
+      </c>
+      <c r="L49" t="s">
+        <v>423</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>424</v>
+      </c>
+      <c r="O49" t="s">
+        <v>91</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>425</v>
+      </c>
+      <c r="X49" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>428</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>429</v>
+      </c>
+      <c r="J50" t="s">
+        <v>430</v>
+      </c>
+      <c r="K50" t="s">
+        <v>431</v>
+      </c>
+      <c r="L50" t="s">
+        <v>432</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>424</v>
+      </c>
+      <c r="O50" t="s">
+        <v>91</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>433</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>434</v>
+      </c>
+      <c r="J51" t="s">
+        <v>435</v>
+      </c>
+      <c r="K51" t="s">
+        <v>436</v>
+      </c>
+      <c r="L51" t="s">
+        <v>437</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>438</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>439</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>440</v>
+      </c>
+      <c r="J52" t="s">
+        <v>441</v>
+      </c>
+      <c r="K52" t="s">
+        <v>442</v>
+      </c>
+      <c r="L52" t="s">
+        <v>443</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>444</v>
+      </c>
+      <c r="O52" t="s">
+        <v>164</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>445</v>
+      </c>
+      <c r="X52" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>448</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>449</v>
+      </c>
+      <c r="J53" t="s">
+        <v>450</v>
+      </c>
+      <c r="K53" t="s">
+        <v>451</v>
+      </c>
+      <c r="L53" t="s">
+        <v>452</v>
+      </c>
+      <c r="M53" t="n">
+        <v>3</v>
+      </c>
+      <c r="N53" t="s">
+        <v>453</v>
+      </c>
+      <c r="O53" t="s">
+        <v>74</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>454</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>455</v>
+      </c>
+      <c r="J54" t="s">
+        <v>456</v>
+      </c>
+      <c r="K54" t="s">
+        <v>457</v>
+      </c>
+      <c r="L54" t="s">
+        <v>458</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>459</v>
+      </c>
+      <c r="O54" t="s">
+        <v>91</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>460</v>
+      </c>
+      <c r="X54" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>463</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>464</v>
+      </c>
+      <c r="J55" t="s">
+        <v>465</v>
+      </c>
+      <c r="K55" t="s">
+        <v>466</v>
+      </c>
+      <c r="L55" t="s">
+        <v>467</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>459</v>
+      </c>
+      <c r="O55" t="s">
+        <v>355</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>460</v>
+      </c>
+      <c r="X55" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>469</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>470</v>
+      </c>
+      <c r="J56" t="s">
+        <v>471</v>
+      </c>
+      <c r="K56" t="s">
+        <v>472</v>
+      </c>
+      <c r="L56" t="s">
+        <v>473</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>474</v>
+      </c>
+      <c r="O56" t="s">
+        <v>355</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="s"/>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>460</v>
+      </c>
+      <c r="X56" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>476</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>477</v>
+      </c>
+      <c r="J57" t="s">
+        <v>478</v>
+      </c>
+      <c r="K57" t="s">
+        <v>479</v>
+      </c>
+      <c r="L57" t="s">
+        <v>480</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>474</v>
+      </c>
+      <c r="O57" t="s">
+        <v>355</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>460</v>
+      </c>
+      <c r="X57" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>482</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>483</v>
+      </c>
+      <c r="J58" t="s">
+        <v>484</v>
+      </c>
+      <c r="K58" t="s">
+        <v>485</v>
+      </c>
+      <c r="L58" t="s">
+        <v>486</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>487</v>
+      </c>
+      <c r="O58" t="s">
+        <v>355</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>460</v>
+      </c>
+      <c r="X58" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>489</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>490</v>
+      </c>
+      <c r="J59" t="s">
+        <v>491</v>
+      </c>
+      <c r="K59" t="s">
+        <v>492</v>
+      </c>
+      <c r="L59" t="s">
+        <v>493</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>494</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>460</v>
+      </c>
+      <c r="X59" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>496</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>497</v>
+      </c>
+      <c r="J60" t="s">
+        <v>498</v>
+      </c>
+      <c r="K60" t="s">
+        <v>499</v>
+      </c>
+      <c r="L60" t="s">
+        <v>500</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>494</v>
+      </c>
+      <c r="O60" t="s">
+        <v>91</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>501</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>502</v>
+      </c>
+      <c r="J61" t="s">
+        <v>503</v>
+      </c>
+      <c r="K61" t="s">
+        <v>504</v>
+      </c>
+      <c r="L61" t="s">
+        <v>505</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>494</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>506</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>507</v>
+      </c>
+      <c r="J62" t="s">
+        <v>508</v>
+      </c>
+      <c r="K62" t="s">
+        <v>509</v>
+      </c>
+      <c r="L62" t="s">
+        <v>510</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>511</v>
+      </c>
+      <c r="O62" t="s">
+        <v>91</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>512</v>
+      </c>
+      <c r="X62" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>515</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>516</v>
+      </c>
+      <c r="J63" t="s">
+        <v>517</v>
+      </c>
+      <c r="K63" t="s">
+        <v>518</v>
+      </c>
+      <c r="L63" t="s">
+        <v>519</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>511</v>
+      </c>
+      <c r="O63" t="s">
+        <v>74</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>520</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>521</v>
+      </c>
+      <c r="J64" t="s">
+        <v>522</v>
+      </c>
+      <c r="K64" t="s">
+        <v>523</v>
+      </c>
+      <c r="L64" t="s">
+        <v>524</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>511</v>
+      </c>
+      <c r="O64" t="s">
+        <v>74</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>526</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>527</v>
+      </c>
+      <c r="J65" t="s">
+        <v>528</v>
+      </c>
+      <c r="K65" t="s">
+        <v>529</v>
+      </c>
+      <c r="L65" t="s">
+        <v>530</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>531</v>
+      </c>
+      <c r="O65" t="s">
+        <v>355</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>532</v>
+      </c>
+      <c r="X65" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>535</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>536</v>
+      </c>
+      <c r="J66" t="s">
+        <v>537</v>
+      </c>
+      <c r="K66" t="s">
+        <v>538</v>
+      </c>
+      <c r="L66" t="s">
+        <v>539</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>532</v>
+      </c>
+      <c r="X66" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>541</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>542</v>
+      </c>
+      <c r="J67" t="s">
+        <v>543</v>
+      </c>
+      <c r="K67" t="s">
+        <v>544</v>
+      </c>
+      <c r="L67" t="s">
+        <v>545</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>546</v>
+      </c>
+      <c r="O67" t="s">
+        <v>91</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>532</v>
+      </c>
+      <c r="X67" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>548</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>549</v>
+      </c>
+      <c r="J68" t="s">
+        <v>550</v>
+      </c>
+      <c r="K68" t="s">
+        <v>551</v>
+      </c>
+      <c r="L68" t="s">
+        <v>552</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>553</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>532</v>
+      </c>
+      <c r="X68" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>555</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>556</v>
+      </c>
+      <c r="J69" t="s">
+        <v>557</v>
+      </c>
+      <c r="K69" t="s">
+        <v>558</v>
+      </c>
+      <c r="L69" t="s">
+        <v>559</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>560</v>
+      </c>
+      <c r="O69" t="s">
+        <v>355</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>532</v>
+      </c>
+      <c r="X69" t="s">
+        <v>533</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>562</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>563</v>
+      </c>
+      <c r="J70" t="s">
+        <v>564</v>
+      </c>
+      <c r="K70" t="s">
+        <v>565</v>
+      </c>
+      <c r="L70" t="s">
+        <v>566</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>553</v>
+      </c>
+      <c r="O70" t="s">
+        <v>74</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>567</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>568</v>
+      </c>
+      <c r="J71" t="s">
+        <v>569</v>
+      </c>
+      <c r="K71" t="s">
+        <v>570</v>
+      </c>
+      <c r="L71" t="s">
+        <v>571</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>560</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>572</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>573</v>
+      </c>
+      <c r="J72" t="s">
+        <v>574</v>
+      </c>
+      <c r="K72" t="s">
+        <v>575</v>
+      </c>
+      <c r="L72" t="s">
+        <v>576</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>560</v>
+      </c>
+      <c r="O72" t="s">
+        <v>164</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>578</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>579</v>
+      </c>
+      <c r="J73" t="s">
+        <v>580</v>
+      </c>
+      <c r="K73" t="s">
+        <v>581</v>
+      </c>
+      <c r="L73" t="s">
+        <v>582</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>583</v>
+      </c>
+      <c r="O73" t="s">
+        <v>74</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>585</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>586</v>
+      </c>
+      <c r="J74" t="s">
+        <v>587</v>
+      </c>
+      <c r="K74" t="s">
+        <v>588</v>
+      </c>
+      <c r="L74" t="s">
+        <v>589</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>583</v>
+      </c>
+      <c r="O74" t="s">
+        <v>91</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>590</v>
+      </c>
+      <c r="X74" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>593</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>594</v>
+      </c>
+      <c r="J75" t="s">
+        <v>595</v>
+      </c>
+      <c r="K75" t="s">
+        <v>596</v>
+      </c>
+      <c r="L75" t="s">
+        <v>597</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>598</v>
+      </c>
+      <c r="O75" t="s">
+        <v>74</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>599</v>
+      </c>
+      <c r="X75" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>602</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>603</v>
+      </c>
+      <c r="J76" t="s">
+        <v>604</v>
+      </c>
+      <c r="K76" t="s">
+        <v>605</v>
+      </c>
+      <c r="L76" t="s">
+        <v>606</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>607</v>
+      </c>
+      <c r="O76" t="s">
+        <v>74</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>599</v>
+      </c>
+      <c r="X76" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>609</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>610</v>
+      </c>
+      <c r="J77" t="s">
+        <v>611</v>
+      </c>
+      <c r="K77" t="s">
+        <v>612</v>
+      </c>
+      <c r="L77" t="s">
+        <v>613</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>614</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>615</v>
+      </c>
+      <c r="X77" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>618</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>619</v>
+      </c>
+      <c r="J78" t="s">
+        <v>620</v>
+      </c>
+      <c r="K78" t="s">
+        <v>621</v>
+      </c>
+      <c r="L78" t="s">
+        <v>622</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>623</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>615</v>
+      </c>
+      <c r="X78" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>625</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>626</v>
+      </c>
+      <c r="J79" t="s">
+        <v>627</v>
+      </c>
+      <c r="K79" t="s">
+        <v>628</v>
+      </c>
+      <c r="L79" t="s">
+        <v>629</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>630</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>615</v>
+      </c>
+      <c r="X79" t="s">
+        <v>616</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>632</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>633</v>
+      </c>
+      <c r="J80" t="s">
+        <v>634</v>
+      </c>
+      <c r="K80" t="s">
+        <v>635</v>
+      </c>
+      <c r="L80" t="s">
+        <v>636</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>637</v>
+      </c>
+      <c r="O80" t="s">
+        <v>355</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>638</v>
+      </c>
+      <c r="X80" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>641</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>642</v>
+      </c>
+      <c r="J81" t="s">
+        <v>643</v>
+      </c>
+      <c r="K81" t="s">
+        <v>644</v>
+      </c>
+      <c r="L81" t="s">
+        <v>645</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>637</v>
+      </c>
+      <c r="O81" t="s">
+        <v>74</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>638</v>
+      </c>
+      <c r="X81" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>647</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>648</v>
+      </c>
+      <c r="J82" t="s">
+        <v>649</v>
+      </c>
+      <c r="K82" t="s">
+        <v>650</v>
+      </c>
+      <c r="L82" t="s">
+        <v>651</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>637</v>
+      </c>
+      <c r="O82" t="s">
+        <v>91</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>638</v>
+      </c>
+      <c r="X82" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>653</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>654</v>
+      </c>
+      <c r="J83" t="s">
+        <v>655</v>
+      </c>
+      <c r="K83" t="s">
+        <v>656</v>
+      </c>
+      <c r="L83" t="s">
+        <v>657</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>658</v>
+      </c>
+      <c r="O83" t="s">
+        <v>74</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>659</v>
+      </c>
+      <c r="X83" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>662</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>663</v>
+      </c>
+      <c r="J84" t="s">
+        <v>664</v>
+      </c>
+      <c r="K84" t="s">
+        <v>665</v>
+      </c>
+      <c r="L84" t="s">
+        <v>666</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>667</v>
+      </c>
+      <c r="O84" t="s">
+        <v>74</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>668</v>
+      </c>
+      <c r="X84" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>671</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>672</v>
+      </c>
+      <c r="J85" t="s">
+        <v>673</v>
+      </c>
+      <c r="K85" t="s">
+        <v>674</v>
+      </c>
+      <c r="L85" t="s">
+        <v>675</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>667</v>
+      </c>
+      <c r="O85" t="s">
+        <v>91</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>676</v>
+      </c>
+      <c r="X85" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>679</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>680</v>
+      </c>
+      <c r="J86" t="s">
+        <v>681</v>
+      </c>
+      <c r="K86" t="s">
+        <v>682</v>
+      </c>
+      <c r="L86" t="s">
+        <v>683</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>684</v>
+      </c>
+      <c r="O86" t="s">
+        <v>355</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>686</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>687</v>
+      </c>
+      <c r="J87" t="s">
+        <v>688</v>
+      </c>
+      <c r="K87" t="s">
+        <v>689</v>
+      </c>
+      <c r="L87" t="s">
+        <v>690</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>691</v>
+      </c>
+      <c r="O87" t="s">
+        <v>91</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>693</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>694</v>
+      </c>
+      <c r="J88" t="s">
+        <v>695</v>
+      </c>
+      <c r="K88" t="s">
+        <v>696</v>
+      </c>
+      <c r="L88" t="s">
+        <v>697</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>698</v>
+      </c>
+      <c r="O88" t="s">
+        <v>74</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>699</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>700</v>
+      </c>
+      <c r="J89" t="s">
+        <v>701</v>
+      </c>
+      <c r="K89" t="s">
+        <v>702</v>
+      </c>
+      <c r="L89" t="s">
+        <v>703</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="s"/>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>704</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>705</v>
+      </c>
+      <c r="J90" t="s">
+        <v>706</v>
+      </c>
+      <c r="K90" t="s">
+        <v>707</v>
+      </c>
+      <c r="L90" t="s">
+        <v>708</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>34003</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>710</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>711</v>
+      </c>
+      <c r="J91" t="s">
+        <v>712</v>
+      </c>
+      <c r="K91" t="s">
+        <v>713</v>
+      </c>
+      <c r="L91" t="s">
+        <v>714</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="s"/>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="s"/>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
